--- a/Data_Analysis/results_metrics_all_sin_cuba.xlsx
+++ b/Data_Analysis/results_metrics_all_sin_cuba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usmcl-my.sharepoint.com/personal/felipe_carriel_sansano_usm_cl/Documents/Documentos/Brain/Brain_Age_with_Patient/Data_Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_7FA9DA5A5776FE0F62355476585DCE3A87462933" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{578D6404-3492-45C2-8A78-77E5E70617FD}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_7D2D4C0493617E0E62355476585DCE3A874649BB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83540317-1C06-426B-92E6-B6145E6D2924}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,19 +70,202 @@
     <t>Avg_GAP_AD_Turquia_Rel</t>
   </si>
   <si>
+    <t>TF_INS_left</t>
+  </si>
+  <si>
+    <t>Low_subj_spec_EPP_CING_left</t>
+  </si>
+  <si>
+    <t>TF_SFG_right</t>
+  </si>
+  <si>
+    <t>Low_subj_spec_EPP_CING_right</t>
+  </si>
+  <si>
+    <t>TF_SFG_left</t>
+  </si>
+  <si>
+    <t>Low_subj_spec_EPP_PARIET_left</t>
+  </si>
+  <si>
+    <t>Low_subj_spec_EPP_PARIET_right</t>
+  </si>
+  <si>
+    <t>Low_subj_spec_EPP_OCC_left</t>
+  </si>
+  <si>
+    <t>TF_IFG_left</t>
+  </si>
+  <si>
+    <t>TF_MFG_right</t>
+  </si>
+  <si>
+    <t>TF_MFG_left</t>
+  </si>
+  <si>
+    <t>Low_subj_spec_EPP_HPC_right</t>
+  </si>
+  <si>
+    <t>IAF_ORB_left</t>
+  </si>
+  <si>
+    <t>TF_ORB_left</t>
+  </si>
+  <si>
+    <t>IAF_SFG_right</t>
+  </si>
+  <si>
+    <t>Low_subj_spec_EPP_HPC_left</t>
+  </si>
+  <si>
+    <t>IAF_MFG_right</t>
+  </si>
+  <si>
+    <t>TF_INS_right</t>
+  </si>
+  <si>
+    <t>IAF_MFG_left</t>
+  </si>
+  <si>
+    <t>IAF_SFG_left</t>
+  </si>
+  <si>
+    <t>TF_ORB_right</t>
+  </si>
+  <si>
+    <t>Low_subj_spec_EPP_OCC_right</t>
+  </si>
+  <si>
+    <t>IAF_ORB_right</t>
+  </si>
+  <si>
+    <t>IAF_IFG_left</t>
+  </si>
+  <si>
+    <t>IAF_IFG_right</t>
+  </si>
+  <si>
+    <t>TF_IFG_right</t>
+  </si>
+  <si>
+    <t>TF_HPC_right</t>
+  </si>
+  <si>
+    <t>IAF_INS_right</t>
+  </si>
+  <si>
+    <t>TF_HPC_left</t>
+  </si>
+  <si>
+    <t>IAF_INS_left</t>
+  </si>
+  <si>
+    <t>IAF_HPC_left</t>
+  </si>
+  <si>
+    <t>IAF_HPC_right</t>
+  </si>
+  <si>
+    <t>IAF_OCC_left</t>
+  </si>
+  <si>
+    <t>Alpha2_canon_RPD_OCC_right</t>
+  </si>
+  <si>
+    <t>Alpha2_canon_EPP_OCC_right</t>
+  </si>
+  <si>
+    <t>IAF_OCC_right</t>
+  </si>
+  <si>
+    <t>Alpha2_canon_EPP_OCC_left</t>
+  </si>
+  <si>
+    <t>Alpha2_canon_RPD_OCC_left</t>
+  </si>
+  <si>
+    <t>Alpha2_canon_EPP_HPC_left</t>
+  </si>
+  <si>
+    <t>Alpha2_canon_RPD_HPC_left</t>
+  </si>
+  <si>
+    <t>Alpha2_canon_RPD_HPC_right</t>
+  </si>
+  <si>
+    <t>Alpha2_canon_EPP_HPC_right</t>
+  </si>
+  <si>
+    <t>Alpha2_canon_RPD_CING_right</t>
+  </si>
+  <si>
+    <t>High_subj_spec_RPD_OCC_right</t>
+  </si>
+  <si>
+    <t>High_subj_spec_EPP_OCC_right</t>
+  </si>
+  <si>
+    <t>High_subj_spec_RPD_HPC_left</t>
+  </si>
+  <si>
+    <t>High_subj_spec_EPP_HPC_left</t>
+  </si>
+  <si>
+    <t>High_subj_spec_EPP_OCC_left</t>
+  </si>
+  <si>
+    <t>High_subj_spec_RPD_OCC_left</t>
+  </si>
+  <si>
+    <t>High_subj_spec_RPD_CING_right</t>
+  </si>
+  <si>
+    <t>High_subj_spec_EPP_CING_right</t>
+  </si>
+  <si>
+    <t>Low_subj_spec_RPD_OCC_right</t>
+  </si>
+  <si>
+    <t>Low_subj_spec_RPD_OCC_left</t>
+  </si>
+  <si>
+    <t>Alpha2_canon_RPD_CING_left</t>
+  </si>
+  <si>
     <t>Low_subj_spec_RPD_HPC_left</t>
   </si>
   <si>
+    <t>Low_subj_spec_RPD_CING_right</t>
+  </si>
+  <si>
+    <t>High_subj_spec_RPD_HPC_right</t>
+  </si>
+  <si>
+    <t>High_subj_spec_EPP_HPC_right</t>
+  </si>
+  <si>
     <t>Alpha2_canon_EPP_PARIET_left</t>
   </si>
   <si>
     <t>Alpha2_canon_RPD_PARIET_left</t>
   </si>
   <si>
-    <t>High_subj_spec_RPD_HPC_left</t>
-  </si>
-  <si>
-    <t>High_subj_spec_EPP_HPC_left</t>
+    <t>High_subj_spec_RPD_CING_left</t>
+  </si>
+  <si>
+    <t>High_subj_spec_EPP_CING_left</t>
+  </si>
+  <si>
+    <t>Alpha2_canon_EPP_PARIET_right</t>
+  </si>
+  <si>
+    <t>Alpha2_canon_RPD_PARIET_right</t>
+  </si>
+  <si>
+    <t>Low_subj_spec_RPD_CING_left</t>
+  </si>
+  <si>
+    <t>Low_subj_spec_RPD_HPC_right</t>
   </si>
   <si>
     <t>High_subj_spec_EPP_PARIET_left</t>
@@ -91,199 +274,16 @@
     <t>High_subj_spec_RPD_PARIET_left</t>
   </si>
   <si>
-    <t>Low_subj_spec_RPD_HPC_right</t>
-  </si>
-  <si>
-    <t>Alpha2_canon_EPP_PARIET_right</t>
-  </si>
-  <si>
-    <t>Alpha2_canon_RPD_PARIET_right</t>
+    <t>Low_subj_spec_RPD_PARIET_left</t>
+  </si>
+  <si>
+    <t>High_subj_spec_RPD_PARIET_right</t>
   </si>
   <si>
     <t>High_subj_spec_EPP_PARIET_right</t>
   </si>
   <si>
-    <t>High_subj_spec_RPD_PARIET_right</t>
-  </si>
-  <si>
     <t>Low_subj_spec_RPD_PARIET_right</t>
-  </si>
-  <si>
-    <t>Alpha2_canon_RPD_HPC_left</t>
-  </si>
-  <si>
-    <t>Alpha2_canon_EPP_HPC_left</t>
-  </si>
-  <si>
-    <t>Low_subj_spec_RPD_PARIET_left</t>
-  </si>
-  <si>
-    <t>High_subj_spec_EPP_HPC_right</t>
-  </si>
-  <si>
-    <t>High_subj_spec_RPD_HPC_right</t>
-  </si>
-  <si>
-    <t>High_subj_spec_RPD_CING_left</t>
-  </si>
-  <si>
-    <t>High_subj_spec_EPP_CING_left</t>
-  </si>
-  <si>
-    <t>High_subj_spec_EPP_OCC_left</t>
-  </si>
-  <si>
-    <t>High_subj_spec_RPD_OCC_left</t>
-  </si>
-  <si>
-    <t>Low_subj_spec_RPD_OCC_left</t>
-  </si>
-  <si>
-    <t>Alpha2_canon_RPD_CING_left</t>
-  </si>
-  <si>
-    <t>Alpha2_canon_EPP_HPC_right</t>
-  </si>
-  <si>
-    <t>Alpha2_canon_RPD_HPC_right</t>
-  </si>
-  <si>
-    <t>Low_subj_spec_RPD_CING_left</t>
-  </si>
-  <si>
-    <t>Alpha2_canon_EPP_OCC_left</t>
-  </si>
-  <si>
-    <t>Alpha2_canon_RPD_OCC_left</t>
-  </si>
-  <si>
-    <t>Low_subj_spec_RPD_OCC_right</t>
-  </si>
-  <si>
-    <t>High_subj_spec_RPD_OCC_right</t>
-  </si>
-  <si>
-    <t>High_subj_spec_EPP_OCC_right</t>
-  </si>
-  <si>
-    <t>IAF_HPC_left</t>
-  </si>
-  <si>
-    <t>Alpha2_canon_RPD_CING_right</t>
-  </si>
-  <si>
-    <t>Low_subj_spec_EPP_CING_left</t>
-  </si>
-  <si>
-    <t>High_subj_spec_EPP_CING_right</t>
-  </si>
-  <si>
-    <t>High_subj_spec_RPD_CING_right</t>
-  </si>
-  <si>
-    <t>Low_subj_spec_RPD_CING_right</t>
-  </si>
-  <si>
-    <t>Alpha2_canon_RPD_OCC_right</t>
-  </si>
-  <si>
-    <t>Alpha2_canon_EPP_OCC_right</t>
-  </si>
-  <si>
-    <t>IAF_INS_left</t>
-  </si>
-  <si>
-    <t>IAF_HPC_right</t>
-  </si>
-  <si>
-    <t>IAF_INS_right</t>
-  </si>
-  <si>
-    <t>Low_subj_spec_EPP_CING_right</t>
-  </si>
-  <si>
-    <t>IAF_OCC_left</t>
-  </si>
-  <si>
-    <t>TF_IFG_right</t>
-  </si>
-  <si>
-    <t>TF_INS_left</t>
-  </si>
-  <si>
-    <t>Low_subj_spec_EPP_PARIET_left</t>
-  </si>
-  <si>
-    <t>IAF_IFG_right</t>
-  </si>
-  <si>
-    <t>Low_subj_spec_EPP_PARIET_right</t>
-  </si>
-  <si>
-    <t>TF_SFG_left</t>
-  </si>
-  <si>
-    <t>Low_subj_spec_EPP_OCC_left</t>
-  </si>
-  <si>
-    <t>TF_SFG_right</t>
-  </si>
-  <si>
-    <t>TF_ORB_right</t>
-  </si>
-  <si>
-    <t>IAF_ORB_right</t>
-  </si>
-  <si>
-    <t>TF_IFG_left</t>
-  </si>
-  <si>
-    <t>IAF_MFG_right</t>
-  </si>
-  <si>
-    <t>IAF_IFG_left</t>
-  </si>
-  <si>
-    <t>TF_HPC_right</t>
-  </si>
-  <si>
-    <t>IAF_ORB_left</t>
-  </si>
-  <si>
-    <t>IAF_OCC_right</t>
-  </si>
-  <si>
-    <t>Low_subj_spec_EPP_HPC_right</t>
-  </si>
-  <si>
-    <t>TF_MFG_left</t>
-  </si>
-  <si>
-    <t>IAF_MFG_left</t>
-  </si>
-  <si>
-    <t>TF_ORB_left</t>
-  </si>
-  <si>
-    <t>TF_INS_right</t>
-  </si>
-  <si>
-    <t>IAF_SFG_right</t>
-  </si>
-  <si>
-    <t>Low_subj_spec_EPP_HPC_left</t>
-  </si>
-  <si>
-    <t>IAF_SFG_left</t>
-  </si>
-  <si>
-    <t>Low_subj_spec_EPP_OCC_right</t>
-  </si>
-  <si>
-    <t>TF_HPC_left</t>
-  </si>
-  <si>
-    <t>TF_MFG_right</t>
   </si>
 </sst>
 </file>
@@ -649,12 +649,12 @@
   <dimension ref="A1:P73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.6328125" customWidth="1"/>
+    <col min="5" max="5" width="18.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
@@ -712,43 +712,43 @@
         <v>16</v>
       </c>
       <c r="B2">
-        <v>2.3976983448863901E-2</v>
+        <v>2.521626495781137E-3</v>
       </c>
       <c r="C2">
-        <v>6.6212056402408344</v>
+        <v>6.7248125371839196</v>
       </c>
       <c r="D2">
-        <v>2.5765965801625258E-4</v>
+        <v>6.5205471656105897E-4</v>
       </c>
       <c r="E2">
-        <v>0.44628833922541378</v>
+        <v>-0.14138702594675179</v>
       </c>
       <c r="F2">
-        <v>0.49814519285618808</v>
+        <v>-7.1261453541082195E-2</v>
       </c>
       <c r="G2">
-        <v>0.4506914330005457</v>
+        <v>-4.9068505177759507E-2</v>
       </c>
       <c r="H2">
-        <v>-0.25732767211627511</v>
+        <v>-9.5102123862735491E-2</v>
       </c>
       <c r="I2">
-        <v>0.50611051201768187</v>
+        <v>6.7138659226007119E-2</v>
       </c>
       <c r="J2">
-        <v>-0.11877595932231649</v>
+        <v>4.3712266082601307E-2</v>
       </c>
       <c r="K2">
-        <v>1.0721749214278049</v>
+        <v>-8.5548255827480921E-2</v>
       </c>
       <c r="M2">
-        <v>-0.23266408438847011</v>
+        <v>-9.796385231606991E-2</v>
       </c>
       <c r="N2">
-        <v>0.8145895896535138</v>
+        <v>-0.18130243440677751</v>
       </c>
       <c r="P2">
-        <v>-0.35169770336880279</v>
+        <v>-5.4903640950029663E-2</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
@@ -756,43 +756,43 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>1.9486505235401071E-2</v>
+        <v>5.21060329124301E-3</v>
       </c>
       <c r="C3">
-        <v>6.6247150527144294</v>
+        <v>6.7047421085014109</v>
       </c>
       <c r="D3">
-        <v>2.6377859045457379E-3</v>
+        <v>8.8073955070773415E-4</v>
       </c>
       <c r="E3">
-        <v>0.4941982460720804</v>
+        <v>-0.14063305306037949</v>
       </c>
       <c r="F3">
-        <v>0.46484131666233008</v>
+        <v>6.4171528692944152E-2</v>
       </c>
       <c r="G3">
-        <v>0.41707327598212007</v>
+        <v>-1.6593559981558949E-2</v>
       </c>
       <c r="H3">
-        <v>-0.52197721249932405</v>
+        <v>-0.19041817046111609</v>
       </c>
       <c r="I3">
-        <v>0.33356693645697982</v>
+        <v>0.19244174414905049</v>
       </c>
       <c r="J3">
-        <v>0.26249813657333282</v>
+        <v>4.4721603282953271E-2</v>
       </c>
       <c r="K3">
-        <v>1.1622971856331381</v>
+        <v>4.9051092379798683E-2</v>
       </c>
       <c r="M3">
-        <v>-7.6543977103947863E-2</v>
+        <v>-0.18097526022072619</v>
       </c>
       <c r="N3">
-        <v>0.63768218722926862</v>
+        <v>-0.1422478176320251</v>
       </c>
       <c r="P3">
-        <v>0.18331637356483921</v>
+        <v>-0.13713439648848069</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
@@ -800,43 +800,43 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>1.9486505235400738E-2</v>
+        <v>2.7235831683364302E-3</v>
       </c>
       <c r="C4">
-        <v>6.6247150527144303</v>
+        <v>6.7340021384587896</v>
       </c>
       <c r="D4">
-        <v>2.6377859045456911E-3</v>
+        <v>1.635426554420838E-3</v>
       </c>
       <c r="E4">
-        <v>0.49419825905772158</v>
+        <v>-0.1241797126113469</v>
       </c>
       <c r="F4">
-        <v>0.46484131498496961</v>
+        <v>-6.4016751510473452E-2</v>
       </c>
       <c r="G4">
-        <v>0.41707327598211519</v>
+        <v>-6.9979984145934315E-2</v>
       </c>
       <c r="H4">
-        <v>-0.52197721249931905</v>
+        <v>-0.1009193196516438</v>
       </c>
       <c r="I4">
-        <v>0.33356693645697733</v>
+        <v>3.3228716549301207E-2</v>
       </c>
       <c r="J4">
-        <v>0.26249813657332949</v>
+        <v>7.6207644229722857E-2</v>
       </c>
       <c r="K4">
-        <v>1.1622972046121489</v>
+        <v>-6.3432957800618625E-2</v>
       </c>
       <c r="M4">
-        <v>-7.6543977103947169E-2</v>
+        <v>-0.1081679489300868</v>
       </c>
       <c r="N4">
-        <v>0.63768220620828397</v>
+        <v>-0.16598770400668331</v>
       </c>
       <c r="P4">
-        <v>0.1833163735648366</v>
+        <v>-3.3595731254784808E-2</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
@@ -844,43 +844,43 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>2.231972256188142E-2</v>
+        <v>4.1919218433267291E-3</v>
       </c>
       <c r="C5">
-        <v>6.6274646998329168</v>
+        <v>6.7181740979156457</v>
       </c>
       <c r="D5">
-        <v>8.9206749296651588E-4</v>
+        <v>3.2580321672194751E-4</v>
       </c>
       <c r="E5">
-        <v>0.35332109619976398</v>
+        <v>-0.1043250434338569</v>
       </c>
       <c r="F5">
-        <v>0.36646901666525139</v>
+        <v>6.0622488702777831E-2</v>
       </c>
       <c r="G5">
-        <v>0.4032217876181064</v>
+        <v>4.5466833840186486E-3</v>
       </c>
       <c r="H5">
-        <v>-0.28979752034551182</v>
+        <v>-0.16283610455858749</v>
       </c>
       <c r="I5">
-        <v>0.47500399135781263</v>
+        <v>0.1659028521659463</v>
       </c>
       <c r="J5">
-        <v>-6.3947006817116125E-2</v>
+        <v>3.6144255988505028E-2</v>
       </c>
       <c r="K5">
-        <v>0.93191019043357715</v>
+        <v>5.1352457618861633E-2</v>
       </c>
       <c r="M5">
-        <v>-0.20562209334671189</v>
+        <v>-0.1239272816400263</v>
       </c>
       <c r="N5">
-        <v>0.64122060259509872</v>
+        <v>-0.1118094501564478</v>
       </c>
       <c r="P5">
-        <v>-0.27046116765679462</v>
+        <v>-8.8108828868243227E-2</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
@@ -888,43 +888,43 @@
         <v>20</v>
       </c>
       <c r="B6">
-        <v>2.2319722561880639E-2</v>
+        <v>2.2285784401424591E-3</v>
       </c>
       <c r="C6">
-        <v>6.6274646998329203</v>
+        <v>6.7333146277147913</v>
       </c>
       <c r="D6">
-        <v>8.9206749296700757E-4</v>
+        <v>1.751033270425293E-3</v>
       </c>
       <c r="E6">
-        <v>0.35332110435580599</v>
+        <v>-9.6568755849862284E-2</v>
       </c>
       <c r="F6">
-        <v>0.36646899477211908</v>
+        <v>-2.5929706572775629E-2</v>
       </c>
       <c r="G6">
-        <v>0.40322178761809568</v>
+        <v>-5.7147295246879108E-2</v>
       </c>
       <c r="H6">
-        <v>-0.28979752034550432</v>
+        <v>-0.1032232210851015</v>
       </c>
       <c r="I6">
-        <v>0.4750039913578013</v>
+        <v>3.9225703064623418E-2</v>
       </c>
       <c r="J6">
-        <v>-6.3947006817113822E-2</v>
+        <v>7.4393618818921509E-2</v>
       </c>
       <c r="K6">
-        <v>0.93191020235393607</v>
+        <v>-2.660450353383563E-2</v>
       </c>
       <c r="M6">
-        <v>-0.20562209334670739</v>
+        <v>-9.3356336979441526E-2</v>
       </c>
       <c r="N6">
-        <v>0.64122061451546486</v>
+        <v>-0.13157875788936241</v>
       </c>
       <c r="P6">
-        <v>-0.27046116765678818</v>
+        <v>-2.071375143094531E-2</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
@@ -932,43 +932,43 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>1.9369101515694039E-2</v>
+        <v>2.3523606189109758E-3</v>
       </c>
       <c r="C7">
-        <v>6.6329963628723556</v>
+        <v>6.7267610633906108</v>
       </c>
       <c r="D7">
-        <v>2.1148495903142031E-3</v>
+        <v>1.5870815965615731E-3</v>
       </c>
       <c r="E7">
-        <v>0.53064878623811018</v>
+        <v>-9.1589325664268972E-2</v>
       </c>
       <c r="F7">
-        <v>0.523110368581575</v>
+        <v>-6.63000806626734E-2</v>
       </c>
       <c r="G7">
-        <v>0.33873066708447153</v>
+        <v>-8.3393093513489799E-4</v>
       </c>
       <c r="H7">
-        <v>-0.49183862967026842</v>
+        <v>-0.1306555384106842</v>
       </c>
       <c r="I7">
-        <v>0.4016307152478138</v>
+        <v>5.812759735568488E-2</v>
       </c>
       <c r="J7">
-        <v>0.1836327458572658</v>
+        <v>8.6397211871682339E-2</v>
       </c>
       <c r="K7">
-        <v>1.2106775950712301</v>
+        <v>1.3447909828508081E-2</v>
       </c>
       <c r="M7">
-        <v>-5.4032324102671087E-2</v>
+        <v>-0.1174544561580408</v>
       </c>
       <c r="N7">
-        <v>0.7167241158106471</v>
+        <v>-0.1187947101787377</v>
       </c>
       <c r="P7">
-        <v>0.1274855721642805</v>
+        <v>-3.264432588292001E-2</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
@@ -976,43 +976,43 @@
         <v>22</v>
       </c>
       <c r="B8">
-        <v>1.9369101515693269E-2</v>
+        <v>1.1704770561279389E-3</v>
       </c>
       <c r="C8">
-        <v>6.6329963628723583</v>
+        <v>6.7323200889168202</v>
       </c>
       <c r="D8">
-        <v>2.1148495903152869E-3</v>
+        <v>3.9495965623971498E-4</v>
       </c>
       <c r="E8">
-        <v>0.53064879038396517</v>
+        <v>-5.4234946433183023E-2</v>
       </c>
       <c r="F8">
-        <v>0.52311038375108909</v>
+        <v>1.828963473835828E-2</v>
       </c>
       <c r="G8">
-        <v>0.33873066708446142</v>
+        <v>-9.753738145574178E-4</v>
       </c>
       <c r="H8">
-        <v>-0.49183862967025888</v>
+        <v>-6.6604926951453661E-2</v>
       </c>
       <c r="I8">
-        <v>0.40163071524780741</v>
+        <v>3.2829609447443911E-2</v>
       </c>
       <c r="J8">
-        <v>0.1836327458572643</v>
+        <v>4.0642186985726837E-2</v>
       </c>
       <c r="K8">
-        <v>1.210677601130548</v>
+        <v>9.142355278665637E-3</v>
       </c>
       <c r="M8">
-        <v>-5.4032324102668998E-2</v>
+        <v>-8.663323982167323E-2</v>
       </c>
       <c r="N8">
-        <v>0.71672412186997381</v>
+        <v>-5.7857531329027739E-2</v>
       </c>
       <c r="P8">
-        <v>0.12748557216428</v>
+        <v>-4.6386012492186122E-2</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
@@ -1020,43 +1020,43 @@
         <v>23</v>
       </c>
       <c r="B9">
-        <v>2.3860229699222631E-2</v>
+        <v>7.2850321012607466E-4</v>
       </c>
       <c r="C9">
-        <v>6.6351993369944466</v>
+        <v>6.7335718468479149</v>
       </c>
       <c r="D9">
-        <v>3.8683295904746941E-4</v>
+        <v>2.2068340204501342E-3</v>
       </c>
       <c r="E9">
-        <v>0.52628989057096809</v>
+        <v>-3.7231607452541053E-2</v>
       </c>
       <c r="F9">
-        <v>0.57088994253501635</v>
+        <v>-1.927803345892096E-2</v>
       </c>
       <c r="G9">
-        <v>0.48815793811832581</v>
+        <v>-1.596529527289467E-2</v>
       </c>
       <c r="H9">
-        <v>-0.26314424752647581</v>
+        <v>-3.295734527810653E-2</v>
       </c>
       <c r="I9">
-        <v>0.47156759980963242</v>
+        <v>2.4172064283990598E-2</v>
       </c>
       <c r="J9">
-        <v>-8.8104399437443928E-2</v>
+        <v>1.978037439606211E-2</v>
       </c>
       <c r="K9">
-        <v>1.1382303979648769</v>
+        <v>-6.9748123990079069E-3</v>
       </c>
       <c r="M9">
-        <v>-0.14010596866737529</v>
+        <v>-4.4172481963935417E-2</v>
       </c>
       <c r="N9">
-        <v>0.87469931747935348</v>
+        <v>-4.2138991697564569E-2</v>
       </c>
       <c r="P9">
-        <v>-0.22859720106386669</v>
+        <v>-2.659894158832345E-2</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
@@ -1064,43 +1064,43 @@
         <v>24</v>
       </c>
       <c r="B10">
-        <v>1.684099253216631E-2</v>
+        <v>8.4080392063035081E-4</v>
       </c>
       <c r="C10">
-        <v>6.6407298610501737</v>
+        <v>6.7350342416485196</v>
       </c>
       <c r="D10">
-        <v>2.1048986764428388E-3</v>
+        <v>9.2258124704526815E-4</v>
       </c>
       <c r="E10">
-        <v>0.51200921114399245</v>
+        <v>-3.6978076328288562E-2</v>
       </c>
       <c r="F10">
-        <v>0.75599075367762092</v>
+        <v>-3.4429011450205153E-2</v>
       </c>
       <c r="G10">
-        <v>0.38935829914167031</v>
+        <v>-1.294757884926199E-2</v>
       </c>
       <c r="H10">
-        <v>-0.43310006526971268</v>
+        <v>-2.4918925533561009E-2</v>
       </c>
       <c r="I10">
-        <v>0.27664700369873652</v>
+        <v>5.475289858168985E-3</v>
       </c>
       <c r="J10">
-        <v>0.2176678565101571</v>
+        <v>2.2160993397646489E-2</v>
       </c>
       <c r="K10">
-        <v>1.1451153552400219</v>
+        <v>-2.4254657549158291E-2</v>
       </c>
       <c r="M10">
-        <v>-0.1323396370144499</v>
+        <v>-2.979396447569178E-2</v>
       </c>
       <c r="N10">
-        <v>0.70991039129386702</v>
+        <v>-5.0096164329764568E-2</v>
       </c>
       <c r="P10">
-        <v>8.322332081926441E-2</v>
+        <v>-8.5555523250905579E-3</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
@@ -1108,43 +1108,43 @@
         <v>25</v>
       </c>
       <c r="B11">
-        <v>1.684099253216564E-2</v>
+        <v>9.8594016401754025E-4</v>
       </c>
       <c r="C11">
-        <v>6.6407298610501773</v>
+        <v>6.7399577645913711</v>
       </c>
       <c r="D11">
-        <v>2.104898676442802E-3</v>
+        <v>1.9669866209259549E-4</v>
       </c>
       <c r="E11">
-        <v>0.51200921721623893</v>
+        <v>-2.8465720744557971E-2</v>
       </c>
       <c r="F11">
-        <v>0.75599076759662731</v>
+        <v>-2.0445410252157039E-2</v>
       </c>
       <c r="G11">
-        <v>0.38935829914166159</v>
+        <v>-1.4326987899680029E-2</v>
       </c>
       <c r="H11">
-        <v>-0.43310006526970302</v>
+        <v>-2.800066685734505E-2</v>
       </c>
       <c r="I11">
-        <v>0.27664700369872602</v>
+        <v>-1.4460503741873189E-2</v>
       </c>
       <c r="J11">
-        <v>0.21766785651015549</v>
+        <v>3.7467031972661657E-2</v>
       </c>
       <c r="K11">
-        <v>1.1451153641148339</v>
+        <v>-1.400670574057911E-2</v>
       </c>
       <c r="M11">
-        <v>-0.13233963701444651</v>
+        <v>-3.5969627938299692E-2</v>
       </c>
       <c r="N11">
-        <v>0.709910400168688</v>
+        <v>-4.2204071260016747E-2</v>
       </c>
       <c r="P11">
-        <v>8.3223320819266228E-2</v>
+        <v>1.300705372269384E-3</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
@@ -1152,43 +1152,43 @@
         <v>26</v>
       </c>
       <c r="B12">
-        <v>1.888157590719752E-2</v>
+        <v>7.6089781838428738E-4</v>
       </c>
       <c r="C12">
-        <v>6.6413998601599458</v>
+        <v>6.7364873988904987</v>
       </c>
       <c r="D12">
-        <v>2.1628365134760828E-3</v>
+        <v>2.7497737388057172E-4</v>
       </c>
       <c r="E12">
-        <v>0.59671720220854219</v>
+        <v>-1.8121896219486119E-2</v>
       </c>
       <c r="F12">
-        <v>0.83256041270932712</v>
+        <v>-1.7565793555444829E-2</v>
       </c>
       <c r="G12">
-        <v>0.36467038870753871</v>
+        <v>-5.7659406494910363E-3</v>
       </c>
       <c r="H12">
-        <v>-0.42956572012475258</v>
+        <v>-2.2026501523520689E-2</v>
       </c>
       <c r="I12">
-        <v>0.35804063290234472</v>
+        <v>-4.797683939956326E-3</v>
       </c>
       <c r="J12">
-        <v>0.15600904242677549</v>
+        <v>2.5069442271830489E-2</v>
       </c>
       <c r="K12">
-        <v>1.2794088227131111</v>
+        <v>-5.1937610127778394E-3</v>
       </c>
       <c r="M12">
-        <v>-0.1008823087484941</v>
+        <v>-2.2607449787601229E-2</v>
       </c>
       <c r="N12">
-        <v>0.84768026607488223</v>
+        <v>-2.74952399101791E-2</v>
       </c>
       <c r="P12">
-        <v>5.2963897164805332E-2</v>
+        <v>2.187015110348692E-3</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
@@ -1196,43 +1196,43 @@
         <v>27</v>
       </c>
       <c r="B13">
-        <v>1.888157590719686E-2</v>
+        <v>6.4429599383131197E-4</v>
       </c>
       <c r="C13">
-        <v>6.6413998601599467</v>
+        <v>6.7362030782690612</v>
       </c>
       <c r="D13">
-        <v>2.1628365134756921E-3</v>
+        <v>1.13190092911466E-4</v>
       </c>
       <c r="E13">
-        <v>0.59671719792171807</v>
+        <v>-1.5786006496712642E-2</v>
       </c>
       <c r="F13">
-        <v>0.83256040713988044</v>
+        <v>-2.1039033242562012E-3</v>
       </c>
       <c r="G13">
-        <v>0.36467038870753721</v>
+        <v>4.1274121385956137E-3</v>
       </c>
       <c r="H13">
-        <v>-0.42956572012474908</v>
+        <v>-1.6765515662997318E-2</v>
       </c>
       <c r="I13">
-        <v>0.35804063290234123</v>
+        <v>1.208863752614381E-2</v>
       </c>
       <c r="J13">
-        <v>0.1560090424267736</v>
+        <v>7.519756324050937E-3</v>
       </c>
       <c r="K13">
-        <v>1.279408816447746</v>
+        <v>-9.5399212717140365E-3</v>
       </c>
       <c r="M13">
-        <v>-0.100882308748487</v>
+        <v>-1.552282442133755E-4</v>
       </c>
       <c r="N13">
-        <v>0.84768025980952133</v>
+        <v>-2.6418627027622821E-2</v>
       </c>
       <c r="P13">
-        <v>5.2963897164810848E-2</v>
+        <v>7.2513379869260956E-3</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
@@ -1240,43 +1240,43 @@
         <v>28</v>
       </c>
       <c r="B14">
-        <v>1.9091712696646449E-2</v>
+        <v>6.4779812201476439E-4</v>
       </c>
       <c r="C14">
-        <v>6.6418453420480841</v>
+        <v>6.7360786690035113</v>
       </c>
       <c r="D14">
-        <v>1.768474518963516E-3</v>
+        <v>1.094697856981642E-4</v>
       </c>
       <c r="E14">
-        <v>0.68079325561503745</v>
+        <v>-9.941760436236069E-3</v>
       </c>
       <c r="F14">
-        <v>0.8815323887005666</v>
+        <v>-2.207578016035289E-2</v>
       </c>
       <c r="G14">
-        <v>0.38004041292418728</v>
+        <v>-7.6025603067814834E-3</v>
       </c>
       <c r="H14">
-        <v>-0.39186859673263269</v>
+        <v>-1.072877209856766E-2</v>
       </c>
       <c r="I14">
-        <v>0.32941214520633938</v>
+        <v>-1.050715513392987E-2</v>
       </c>
       <c r="J14">
-        <v>0.13976750481545741</v>
+        <v>1.8014028995191059E-2</v>
       </c>
       <c r="K14">
-        <v>1.3530503303076029</v>
+        <v>-1.357761532529672E-2</v>
       </c>
       <c r="M14">
-        <v>-6.0882448803556997E-2</v>
+        <v>3.5142233631450769E-3</v>
       </c>
       <c r="N14">
-        <v>0.95941325905600694</v>
+        <v>-2.441585720956254E-2</v>
       </c>
       <c r="P14">
-        <v>7.7116581492936917E-2</v>
+        <v>2.1418782572637969E-2</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
@@ -1284,43 +1284,43 @@
         <v>29</v>
       </c>
       <c r="B15">
-        <v>1.6841875950614819E-2</v>
+        <v>6.3851119679469992E-4</v>
       </c>
       <c r="C15">
-        <v>6.6470343359480593</v>
+        <v>6.7367678942454514</v>
       </c>
       <c r="D15">
-        <v>4.9547617885537757E-4</v>
+        <v>6.6915428903556202E-4</v>
       </c>
       <c r="E15">
-        <v>0.27231120915842338</v>
+        <v>-7.7289926787673172E-3</v>
       </c>
       <c r="F15">
-        <v>0.27834761715936213</v>
+        <v>-7.253974197065638E-3</v>
       </c>
       <c r="G15">
-        <v>0.43635204197052468</v>
+        <v>-2.5363472515300212E-3</v>
       </c>
       <c r="H15">
-        <v>-0.29435753311972862</v>
+        <v>-3.670803386880347E-3</v>
       </c>
       <c r="I15">
-        <v>0.34674147327493998</v>
+        <v>-1.7430575498433591E-3</v>
       </c>
       <c r="J15">
-        <v>3.1445252956515062E-2</v>
+        <v>6.5178059849918587E-3</v>
       </c>
       <c r="K15">
-        <v>0.78328167547947869</v>
+        <v>-5.8134520253158468E-3</v>
       </c>
       <c r="M15">
-        <v>-0.2268930578345911</v>
+        <v>-8.3247408260506625E-3</v>
       </c>
       <c r="N15">
-        <v>0.48842866618089481</v>
+        <v>-1.0153409701231761E-2</v>
       </c>
       <c r="P15">
-        <v>-0.1959432810569314</v>
+        <v>-2.4760891300943662E-3</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
@@ -1328,43 +1328,43 @@
         <v>30</v>
       </c>
       <c r="B16">
-        <v>1.6841875950614819E-2</v>
+        <v>6.2754637293260807E-4</v>
       </c>
       <c r="C16">
-        <v>6.647034335948061</v>
+        <v>6.7373810641180949</v>
       </c>
       <c r="D16">
-        <v>4.9547617885506033E-4</v>
+        <v>1.1134487300709719E-3</v>
       </c>
       <c r="E16">
-        <v>0.27231119476950172</v>
+        <v>-3.443431523757179E-3</v>
       </c>
       <c r="F16">
-        <v>0.27834760128476471</v>
+        <v>4.9117729114694702E-3</v>
       </c>
       <c r="G16">
-        <v>0.43635204197052369</v>
+        <v>-2.0639415392106441E-3</v>
       </c>
       <c r="H16">
-        <v>-0.29435753311973051</v>
+        <v>5.3442629477652766E-3</v>
       </c>
       <c r="I16">
-        <v>0.34674147327494043</v>
+        <v>-2.0571962826461451E-3</v>
       </c>
       <c r="J16">
-        <v>3.1445252956515742E-2</v>
+        <v>-6.2178083630657049E-4</v>
       </c>
       <c r="K16">
-        <v>0.78328165444951858</v>
+        <v>-4.9404132638898174E-3</v>
       </c>
       <c r="M16">
-        <v>-0.22689305783459349</v>
+        <v>-7.6315056587632456E-3</v>
       </c>
       <c r="N16">
-        <v>0.48842864515093309</v>
+        <v>-7.0959904619551204E-4</v>
       </c>
       <c r="P16">
-        <v>-0.19594328105693279</v>
+        <v>-9.366735225140789E-3</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.35">
@@ -1372,43 +1372,43 @@
         <v>31</v>
       </c>
       <c r="B17">
-        <v>1.6585138969809839E-2</v>
+        <v>6.2061803652191383E-4</v>
       </c>
       <c r="C17">
-        <v>6.6533090595849798</v>
+        <v>6.7381008407144289</v>
       </c>
       <c r="D17">
-        <v>1.979405583144779E-3</v>
+        <v>1.5073135359225491E-3</v>
       </c>
       <c r="E17">
-        <v>0.57906562617936885</v>
+        <v>3.2068524499738842E-3</v>
       </c>
       <c r="F17">
-        <v>0.60414890961362988</v>
+        <v>5.7755564197586621E-3</v>
       </c>
       <c r="G17">
-        <v>0.35177394840806903</v>
+        <v>-7.103707090102762E-3</v>
       </c>
       <c r="H17">
-        <v>-0.42112127229571278</v>
+        <v>1.40124064497728E-2</v>
       </c>
       <c r="I17">
-        <v>0.3743081880910033</v>
+        <v>-6.3279918704432911E-3</v>
       </c>
       <c r="J17">
-        <v>0.13582683565903589</v>
+        <v>-4.7249361777996438E-3</v>
       </c>
       <c r="K17">
-        <v>1.205778137712163</v>
+        <v>-4.9054342925765482E-3</v>
       </c>
       <c r="M17">
-        <v>4.0592231866162509E-3</v>
+        <v>-7.8644540786865051E-5</v>
       </c>
       <c r="N17">
-        <v>0.78267745983330494</v>
+        <v>7.5996586212737031E-3</v>
       </c>
       <c r="P17">
-        <v>0.13790665326250731</v>
+        <v>-6.310894254509058E-3</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.35">
@@ -1416,43 +1416,43 @@
         <v>32</v>
       </c>
       <c r="B18">
-        <v>1.9526470718407411E-2</v>
+        <v>9.1208420677280078E-4</v>
       </c>
       <c r="C18">
-        <v>6.6573116237872796</v>
+        <v>6.7353409357102496</v>
       </c>
       <c r="D18">
-        <v>5.8996572050703155E-4</v>
+        <v>2.0057405331825608E-3</v>
       </c>
       <c r="E18">
-        <v>0.44972710519492409</v>
+        <v>7.3739892276940286E-3</v>
       </c>
       <c r="F18">
-        <v>0.42442229101532353</v>
+        <v>3.0836826440240061E-2</v>
       </c>
       <c r="G18">
-        <v>0.43693700112403738</v>
+        <v>5.4514205019029569E-3</v>
       </c>
       <c r="H18">
-        <v>-0.28253107567486779</v>
+        <v>3.7665091502014407E-2</v>
       </c>
       <c r="I18">
-        <v>0.39447910275616632</v>
+        <v>1.9655326817849251E-2</v>
       </c>
       <c r="J18">
-        <v>-1.3806879160285579E-2</v>
+        <v>-4.4490926129815388E-2</v>
       </c>
       <c r="K18">
-        <v>0.97460797076496264</v>
+        <v>3.531281158820232E-3</v>
       </c>
       <c r="M18">
-        <v>-5.9689002302721582E-2</v>
+        <v>-1.5065403725883801E-2</v>
       </c>
       <c r="N18">
-        <v>0.69148692936958778</v>
+        <v>3.9190632127652093E-2</v>
       </c>
       <c r="P18">
-        <v>-7.4085847183514186E-2</v>
+        <v>-6.1562070388881757E-2</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.35">
@@ -1460,43 +1460,43 @@
         <v>33</v>
       </c>
       <c r="B19">
-        <v>1.9526470718407522E-2</v>
+        <v>6.489532127581521E-4</v>
       </c>
       <c r="C19">
-        <v>6.6573116237872814</v>
+        <v>6.7373028008321398</v>
       </c>
       <c r="D19">
-        <v>5.8996572050647373E-4</v>
+        <v>-2.8166036853716312E-4</v>
       </c>
       <c r="E19">
-        <v>0.44972708723546462</v>
+        <v>9.1117326449615486E-3</v>
       </c>
       <c r="F19">
-        <v>0.42442231505386718</v>
+        <v>9.9437814253535879E-3</v>
       </c>
       <c r="G19">
-        <v>0.43693700112404421</v>
+        <v>7.2975234599490946E-3</v>
       </c>
       <c r="H19">
-        <v>-0.28253107567487151</v>
+        <v>8.7145713328515857E-3</v>
       </c>
       <c r="I19">
-        <v>0.39447910275617071</v>
+        <v>-8.390792423547306E-3</v>
       </c>
       <c r="J19">
-        <v>-1.380687916028669E-2</v>
+        <v>-2.989384474390633E-3</v>
       </c>
       <c r="K19">
-        <v>0.97460794451652721</v>
+        <v>5.0871593388912336E-3</v>
       </c>
       <c r="M19">
-        <v>-5.9689002302725523E-2</v>
+        <v>1.047530227625079E-3</v>
       </c>
       <c r="N19">
-        <v>0.69148690312114924</v>
+        <v>1.408339104027998E-2</v>
       </c>
       <c r="P19">
-        <v>-7.4085847183518683E-2</v>
+        <v>-1.660193878228391E-3</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.35">
@@ -1504,43 +1504,43 @@
         <v>34</v>
       </c>
       <c r="B20">
-        <v>1.503507309420893E-2</v>
+        <v>9.7916572357714671E-4</v>
       </c>
       <c r="C20">
-        <v>6.6615505369280257</v>
+        <v>6.736706549435981</v>
       </c>
       <c r="D20">
-        <v>1.278014067604014E-3</v>
+        <v>-7.9700746353765838E-6</v>
       </c>
       <c r="E20">
-        <v>0.50214857999908835</v>
+        <v>1.117143141345652E-2</v>
       </c>
       <c r="F20">
-        <v>0.34338158319934958</v>
+        <v>3.0445546421176851E-2</v>
       </c>
       <c r="G20">
-        <v>0.55201859672641818</v>
+        <v>1.8173023213917869E-2</v>
       </c>
       <c r="H20">
-        <v>-0.5211901818602892</v>
+        <v>3.2175496696082759E-2</v>
       </c>
       <c r="I20">
-        <v>0.32932079187485758</v>
+        <v>1.982066722263125E-2</v>
       </c>
       <c r="J20">
-        <v>0.26117545868527697</v>
+        <v>-4.477317606275797E-2</v>
       </c>
       <c r="K20">
-        <v>1.137518158671079</v>
+        <v>8.7146574335279781E-3</v>
       </c>
       <c r="M20">
-        <v>-2.368527230795614E-3</v>
+        <v>-8.4711969784650315E-3</v>
       </c>
       <c r="N20">
-        <v>0.6150499627431858</v>
+        <v>4.0898124204246107E-2</v>
       </c>
       <c r="P20">
-        <v>0.25752891738687739</v>
+        <v>-5.3236402966587618E-2</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.35">
@@ -1548,43 +1548,43 @@
         <v>35</v>
       </c>
       <c r="B21">
-        <v>1.503507309420826E-2</v>
+        <v>8.5078267766214299E-4</v>
       </c>
       <c r="C21">
-        <v>6.6615505369280292</v>
+        <v>6.7383240888879969</v>
       </c>
       <c r="D21">
-        <v>1.278014067604014E-3</v>
+        <v>5.7202582755235519E-5</v>
       </c>
       <c r="E21">
-        <v>0.50214859477799534</v>
+        <v>1.170703229398228E-2</v>
       </c>
       <c r="F21">
-        <v>0.34338151841553571</v>
+        <v>3.5540971338324213E-2</v>
       </c>
       <c r="G21">
-        <v>0.5520185967264114</v>
+        <v>1.381331552839412E-2</v>
       </c>
       <c r="H21">
-        <v>-0.5211901818602811</v>
+        <v>2.6274468550972631E-2</v>
       </c>
       <c r="I21">
-        <v>0.3293207918748503</v>
+        <v>1.3751129666488251E-2</v>
       </c>
       <c r="J21">
-        <v>0.26117545868527448</v>
+        <v>-3.4643302848036947E-2</v>
       </c>
       <c r="K21">
-        <v>1.137518180271013</v>
+        <v>9.6888181890055353E-3</v>
       </c>
       <c r="M21">
-        <v>-2.3685272307971679E-3</v>
+        <v>-6.0237413122469358E-3</v>
       </c>
       <c r="N21">
-        <v>0.61504998434312841</v>
+        <v>3.5906084157222927E-2</v>
       </c>
       <c r="P21">
-        <v>0.25752891738687328</v>
+        <v>-4.0724246743039122E-2</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.35">
@@ -1592,43 +1592,43 @@
         <v>36</v>
       </c>
       <c r="B22">
-        <v>1.287776028462506E-2</v>
+        <v>7.6922327114137268E-4</v>
       </c>
       <c r="C22">
-        <v>6.6625780076995964</v>
+        <v>6.7345341467487261</v>
       </c>
       <c r="D22">
-        <v>2.8056752808018788E-3</v>
+        <v>9.8778007199699621E-4</v>
       </c>
       <c r="E22">
-        <v>0.35894313198804451</v>
+        <v>1.294642455442703E-2</v>
       </c>
       <c r="F22">
-        <v>0.40933187096739759</v>
+        <v>2.8116991663433649E-2</v>
       </c>
       <c r="G22">
-        <v>0.29185830404433122</v>
+        <v>5.1484368409659611E-3</v>
       </c>
       <c r="H22">
-        <v>-0.29407408916414002</v>
+        <v>3.3383237757373542E-2</v>
       </c>
       <c r="I22">
-        <v>0.28937349078706831</v>
+        <v>-1.088595018804444E-2</v>
       </c>
       <c r="J22">
-        <v>7.8541743120908614E-2</v>
+        <v>-2.1208129490453378E-2</v>
       </c>
       <c r="K22">
-        <v>0.85300853976817737</v>
+        <v>-4.4593718076983389E-3</v>
       </c>
       <c r="M22">
-        <v>-0.1440284964116427</v>
+        <v>2.664734583166527E-3</v>
       </c>
       <c r="N22">
-        <v>0.55612877532323546</v>
+        <v>2.7936085877678211E-2</v>
       </c>
       <c r="P22">
-        <v>-6.8292428571535987E-2</v>
+        <v>-1.953117497928385E-2</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.35">
@@ -1636,43 +1636,43 @@
         <v>37</v>
       </c>
       <c r="B23">
-        <v>1.287776028462506E-2</v>
+        <v>6.3693135447340232E-4</v>
       </c>
       <c r="C23">
-        <v>6.6625780076995964</v>
+        <v>6.7391905448072453</v>
       </c>
       <c r="D23">
-        <v>2.8056752808020371E-3</v>
+        <v>1.5019263583420229E-3</v>
       </c>
       <c r="E23">
-        <v>0.35894313433416419</v>
+        <v>1.6519193495257632E-2</v>
       </c>
       <c r="F23">
-        <v>0.40933184157476959</v>
+        <v>-4.34780821598369E-3</v>
       </c>
       <c r="G23">
-        <v>0.29185830404432789</v>
+        <v>7.7684428924981097E-3</v>
       </c>
       <c r="H23">
-        <v>-0.29407408916413552</v>
+        <v>2.652368997932945E-2</v>
       </c>
       <c r="I23">
-        <v>0.28937349078706809</v>
+        <v>-1.9893570598897181E-2</v>
       </c>
       <c r="J23">
-        <v>7.8541743120904839E-2</v>
+        <v>-6.8616314041805874E-3</v>
       </c>
       <c r="K23">
-        <v>0.85300854319711605</v>
+        <v>-7.4221799325355393E-3</v>
       </c>
       <c r="M23">
-        <v>-0.14402849641163609</v>
+        <v>2.2541905839192699E-2</v>
       </c>
       <c r="N23">
-        <v>0.55612877875217859</v>
+        <v>1.7599583688451881E-2</v>
       </c>
       <c r="P23">
-        <v>-6.8292428571533351E-2</v>
+        <v>1.4178348076670091E-2</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.35">
@@ -1680,43 +1680,43 @@
         <v>38</v>
       </c>
       <c r="B24">
-        <v>1.2698592834409659E-2</v>
+        <v>1.3356869282555861E-3</v>
       </c>
       <c r="C24">
-        <v>6.6658481035881731</v>
+        <v>6.7346195736160936</v>
       </c>
       <c r="D24">
-        <v>2.7366767070513181E-3</v>
+        <v>9.6167489229700314E-4</v>
       </c>
       <c r="E24">
-        <v>0.42346468508634511</v>
+        <v>2.1739161014230238E-2</v>
       </c>
       <c r="F24">
-        <v>0.47610511390206722</v>
+        <v>4.9306851200621178E-2</v>
       </c>
       <c r="G24">
-        <v>0.31982909387767738</v>
+        <v>1.149579992583806E-2</v>
       </c>
       <c r="H24">
-        <v>-0.25093456851584661</v>
+        <v>4.5652352938194703E-2</v>
       </c>
       <c r="I24">
-        <v>0.27144539734323958</v>
+        <v>3.9161691106872808E-2</v>
       </c>
       <c r="J24">
-        <v>5.0320601997220063E-2</v>
+        <v>-6.8860844900590967E-2</v>
       </c>
       <c r="K24">
-        <v>0.89928811511010631</v>
+        <v>2.8685175322933139E-2</v>
       </c>
       <c r="M24">
-        <v>-0.1054489739390274</v>
+        <v>-2.0317819294516429E-2</v>
       </c>
       <c r="N24">
-        <v>0.64561686988720834</v>
+        <v>7.3375853368830832E-2</v>
       </c>
       <c r="P24">
-        <v>-5.7865048648858691E-2</v>
+        <v>-9.0140339087404403E-2</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.35">
@@ -1724,43 +1724,43 @@
         <v>39</v>
       </c>
       <c r="B25">
-        <v>1.2512596924845409E-2</v>
+        <v>1.5256752243326681E-3</v>
       </c>
       <c r="C25">
-        <v>6.6671413076878423</v>
+        <v>6.7357881238418891</v>
       </c>
       <c r="D25">
-        <v>1.0568235056105379E-3</v>
+        <v>8.9401442589383858E-4</v>
       </c>
       <c r="E25">
-        <v>0.43893095023071571</v>
+        <v>2.23727452311401E-2</v>
       </c>
       <c r="F25">
-        <v>0.3267644008494951</v>
+        <v>8.780700598791856E-2</v>
       </c>
       <c r="G25">
-        <v>0.54979719376174774</v>
+        <v>4.8680958712229418E-2</v>
       </c>
       <c r="H25">
-        <v>-0.49499091982361221</v>
+        <v>4.7442440683012177E-2</v>
       </c>
       <c r="I25">
-        <v>0.25667017883737048</v>
+        <v>2.8469944265185849E-2</v>
       </c>
       <c r="J25">
-        <v>0.28791949549225998</v>
+        <v>-6.305962516284877E-2</v>
       </c>
       <c r="K25">
-        <v>1.012581618577445</v>
+        <v>3.6795650864973148E-2</v>
       </c>
       <c r="M25">
-        <v>-1.6071392627198811E-2</v>
+        <v>-4.5778167610512038E-2</v>
       </c>
       <c r="N25">
-        <v>0.5165338752482227</v>
+        <v>8.3344077122091492E-2</v>
       </c>
       <c r="P25">
-        <v>0.27079127935945058</v>
+        <v>-0.1097318071992546</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.35">
@@ -1768,43 +1768,43 @@
         <v>40</v>
       </c>
       <c r="B26">
-        <v>1.518597330409166E-2</v>
+        <v>3.7857182126571631E-3</v>
       </c>
       <c r="C26">
-        <v>6.6721729741480651</v>
+        <v>6.7312253249515077</v>
       </c>
       <c r="D26">
-        <v>2.1691288745002381E-5</v>
+        <v>1.301560190681112E-3</v>
       </c>
       <c r="E26">
-        <v>0.3356827110366768</v>
+        <v>3.155033427639397E-2</v>
       </c>
       <c r="F26">
-        <v>0.37670133361993741</v>
+        <v>0.1098027098466481</v>
       </c>
       <c r="G26">
-        <v>0.48436451514829948</v>
+        <v>3.7921000381349192E-2</v>
       </c>
       <c r="H26">
-        <v>-0.28001772725211133</v>
+        <v>8.4167071510727817E-2</v>
       </c>
       <c r="I26">
-        <v>0.27815339702467601</v>
+        <v>7.8390163594517379E-2</v>
       </c>
       <c r="J26">
-        <v>6.5845430546924211E-2</v>
+        <v>-0.13265833830767421</v>
       </c>
       <c r="K26">
-        <v>0.78226140510056852</v>
+        <v>5.1569942088209773E-2</v>
       </c>
       <c r="M26">
-        <v>-9.0976125188079224E-2</v>
+        <v>-5.7407525344286142E-2</v>
       </c>
       <c r="N26">
-        <v>0.50222198655971229</v>
+        <v>0.13443545340825649</v>
       </c>
       <c r="P26">
-        <v>-2.515238592990001E-2</v>
+        <v>-0.19136742384264141</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.35">
@@ -1812,43 +1812,43 @@
         <v>41</v>
       </c>
       <c r="B27">
-        <v>1.518597330409166E-2</v>
+        <v>1.7006932970219379E-3</v>
       </c>
       <c r="C27">
-        <v>6.6721729741480704</v>
+        <v>6.7245087165660191</v>
       </c>
       <c r="D27">
-        <v>2.169128874490194E-5</v>
+        <v>5.6328367628527424E-4</v>
       </c>
       <c r="E27">
-        <v>0.33568269861550859</v>
+        <v>3.4133514139321572E-2</v>
       </c>
       <c r="F27">
-        <v>0.37670133873295192</v>
+        <v>4.7588709037258918E-2</v>
       </c>
       <c r="G27">
-        <v>0.4843645151482921</v>
+        <v>3.4551586618865482E-2</v>
       </c>
       <c r="H27">
-        <v>-0.2800177272521111</v>
+        <v>7.1628563494071457E-2</v>
       </c>
       <c r="I27">
-        <v>0.27815339702467973</v>
+        <v>-2.9403741154985421E-2</v>
       </c>
       <c r="J27">
-        <v>6.5845430546921047E-2</v>
+        <v>-4.5311995617329397E-2</v>
       </c>
       <c r="K27">
-        <v>0.78226138694655711</v>
+        <v>-6.4995462285208222E-3</v>
       </c>
       <c r="M27">
-        <v>-9.0976125188084664E-2</v>
+        <v>1.407231795805804E-2</v>
       </c>
       <c r="N27">
-        <v>0.5022219684057011</v>
+        <v>6.4565733589265359E-2</v>
       </c>
       <c r="P27">
-        <v>-2.5152385929908521E-2</v>
+        <v>-3.1802961335556629E-2</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.35">
@@ -1856,43 +1856,43 @@
         <v>42</v>
       </c>
       <c r="B28">
-        <v>1.3456775018704681E-2</v>
+        <v>8.4295556255686854E-4</v>
       </c>
       <c r="C28">
-        <v>6.6765946673300203</v>
+        <v>6.7358280737224243</v>
       </c>
       <c r="D28">
-        <v>1.3874852219356421E-3</v>
+        <v>-8.8067477441206422E-4</v>
       </c>
       <c r="E28">
-        <v>0.5244886751622948</v>
+        <v>4.473188348161096E-2</v>
       </c>
       <c r="F28">
-        <v>0.35718864645590881</v>
+        <v>3.1835325526347387E-2</v>
       </c>
       <c r="G28">
-        <v>0.55212133406545905</v>
+        <v>3.2646872477920343E-2</v>
       </c>
       <c r="H28">
-        <v>-0.461403024810493</v>
+        <v>2.6887295166476689E-2</v>
       </c>
       <c r="I28">
-        <v>0.28162405218336611</v>
+        <v>-2.7529993427415599E-2</v>
       </c>
       <c r="J28">
-        <v>0.2390228553716639</v>
+        <v>-8.0751912017087736E-3</v>
       </c>
       <c r="K28">
-        <v>1.105343633672794</v>
+        <v>3.2142509763116903E-2</v>
       </c>
       <c r="M28">
-        <v>3.10469999767479E-2</v>
+        <v>1.903944142705247E-2</v>
       </c>
       <c r="N28">
-        <v>0.64255312364036488</v>
+        <v>5.9910479704005662E-2</v>
       </c>
       <c r="P28">
-        <v>0.26868237012647622</v>
+        <v>1.1844924999755769E-2</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.35">
@@ -1900,43 +1900,43 @@
         <v>43</v>
       </c>
       <c r="B29">
-        <v>8.1791028768163354E-3</v>
+        <v>7.8600471290266594E-3</v>
       </c>
       <c r="C29">
-        <v>6.687883040940144</v>
+        <v>6.7176215908246304</v>
       </c>
       <c r="D29">
-        <v>2.599051945202195E-3</v>
+        <v>3.2979896722434583E-4</v>
       </c>
       <c r="E29">
-        <v>0.2396083159103661</v>
+        <v>4.7240207627798153E-2</v>
       </c>
       <c r="F29">
-        <v>0.26841872636070502</v>
+        <v>0.18325455252378939</v>
       </c>
       <c r="G29">
-        <v>0.26061659322211361</v>
+        <v>4.4911965277604091E-2</v>
       </c>
       <c r="H29">
-        <v>-0.2469095930933953</v>
+        <v>0.1146174827706927</v>
       </c>
       <c r="I29">
-        <v>0.17513078140517979</v>
+        <v>6.5085293309654998E-2</v>
       </c>
       <c r="J29">
-        <v>0.11531461992920559</v>
+        <v>-0.15457298240185849</v>
       </c>
       <c r="K29">
-        <v>0.62213220176776118</v>
+        <v>7.614352593314698E-2</v>
       </c>
       <c r="M29">
-        <v>-0.1613069405143655</v>
+        <v>-0.1081041822388895</v>
       </c>
       <c r="N29">
-        <v>0.3726235567291637</v>
+        <v>0.19043120973661529</v>
       </c>
       <c r="P29">
-        <v>-4.8591372530362109E-2</v>
+        <v>-0.26300696360797238</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.35">
@@ -1944,43 +1944,43 @@
         <v>44</v>
       </c>
       <c r="B30">
-        <v>8.1791028768161134E-3</v>
+        <v>1.0298311290803941E-3</v>
       </c>
       <c r="C30">
-        <v>6.6878830409401457</v>
+        <v>6.7393520571030558</v>
       </c>
       <c r="D30">
-        <v>2.5990519452023741E-3</v>
+        <v>1.0607068858707431E-3</v>
       </c>
       <c r="E30">
-        <v>0.239608316725239</v>
+        <v>5.2917642820002733E-2</v>
       </c>
       <c r="F30">
-        <v>0.26841871974869802</v>
+        <v>3.135851048292021E-2</v>
       </c>
       <c r="G30">
-        <v>0.2606165932221074</v>
+        <v>2.318313396095556E-2</v>
       </c>
       <c r="H30">
-        <v>-0.24690959309338839</v>
+        <v>3.3540440909643893E-2</v>
       </c>
       <c r="I30">
-        <v>0.17513078140517621</v>
+        <v>-2.1828186399585201E-2</v>
       </c>
       <c r="J30">
-        <v>0.115314619929202</v>
+        <v>-1.3303446872122329E-2</v>
       </c>
       <c r="K30">
-        <v>0.62213220295872196</v>
+        <v>3.8745518415762577E-2</v>
       </c>
       <c r="M30">
-        <v>-0.1613069405143607</v>
+        <v>2.7615309069007589E-2</v>
       </c>
       <c r="N30">
-        <v>0.37262355792013119</v>
+        <v>7.122525243953573E-2</v>
       </c>
       <c r="P30">
-        <v>-4.8591372530360992E-2</v>
+        <v>1.325115531101452E-2</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.35">
@@ -1988,43 +1988,43 @@
         <v>45</v>
       </c>
       <c r="B31">
-        <v>9.3025630395797698E-3</v>
+        <v>6.9498385110549066E-3</v>
       </c>
       <c r="C31">
-        <v>6.6944483895874143</v>
+        <v>6.7119945672192216</v>
       </c>
       <c r="D31">
-        <v>2.724764004061245E-3</v>
+        <v>3.6242074828501681E-4</v>
       </c>
       <c r="E31">
-        <v>0.41119229911245492</v>
+        <v>7.1836591528756225E-2</v>
       </c>
       <c r="F31">
-        <v>0.52858643360354485</v>
+        <v>0.15809143482673441</v>
       </c>
       <c r="G31">
-        <v>0.29509646943640178</v>
+        <v>8.9402863038558419E-2</v>
       </c>
       <c r="H31">
-        <v>-0.18746847236148559</v>
+        <v>8.4034896663524497E-2</v>
       </c>
       <c r="I31">
-        <v>0.19669156114538969</v>
+        <v>9.0875023718644282E-2</v>
       </c>
       <c r="J31">
-        <v>4.3789022769081982E-2</v>
+        <v>-0.14400465417781519</v>
       </c>
       <c r="K31">
-        <v>0.79336674220820946</v>
+        <v>0.11696860445205549</v>
       </c>
       <c r="M31">
-        <v>-4.5831240901349622E-2</v>
+        <v>-6.2872726028644271E-2</v>
       </c>
       <c r="N31">
-        <v>0.60317350584266261</v>
+        <v>0.200641080367295</v>
       </c>
       <c r="P31">
-        <v>-4.7669821363288886E-3</v>
+        <v>-0.20723980095474451</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.35">
@@ -2032,43 +2032,43 @@
         <v>46</v>
       </c>
       <c r="B32">
-        <v>8.3187518686720363E-3</v>
+        <v>8.9144503845181022E-3</v>
       </c>
       <c r="C32">
-        <v>6.6958282205618964</v>
+        <v>6.7002254263224579</v>
       </c>
       <c r="D32">
-        <v>2.897297759318795E-3</v>
+        <v>1.3503181332879929E-3</v>
       </c>
       <c r="E32">
-        <v>0.34588214147331842</v>
+        <v>8.736793814146164E-2</v>
       </c>
       <c r="F32">
-        <v>0.45791638486590291</v>
+        <v>0.2551537631213433</v>
       </c>
       <c r="G32">
-        <v>0.26254722537049452</v>
+        <v>5.5381102737677178E-2</v>
       </c>
       <c r="H32">
-        <v>-0.2034899521193195</v>
+        <v>0.1108084119107378</v>
       </c>
       <c r="I32">
-        <v>0.2002275476382282</v>
+        <v>5.9328319183150013E-2</v>
       </c>
       <c r="J32">
-        <v>5.6904351302620122E-2</v>
+        <v>-0.1441040572747895</v>
       </c>
       <c r="K32">
-        <v>0.71730261760678948</v>
+        <v>0.12720549233877071</v>
       </c>
       <c r="M32">
-        <v>-6.5696902288787273E-2</v>
+        <v>-9.0651590395771836E-2</v>
       </c>
       <c r="N32">
-        <v>0.51091536772815116</v>
+        <v>0.23666358611622049</v>
       </c>
       <c r="P32">
-        <v>-1.168984874548595E-2</v>
+        <v>-0.23610596580384929</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.35">
@@ -2076,43 +2076,43 @@
         <v>47</v>
       </c>
       <c r="B33">
-        <v>8.3187518686717032E-3</v>
+        <v>8.2351484978400169E-3</v>
       </c>
       <c r="C33">
-        <v>6.6958282205618991</v>
+        <v>6.7124117026026919</v>
       </c>
       <c r="D33">
-        <v>2.8972977593182511E-3</v>
+        <v>4.4212814026017578E-4</v>
       </c>
       <c r="E33">
-        <v>0.34588214417780411</v>
+        <v>0.1134597327700278</v>
       </c>
       <c r="F33">
-        <v>0.45791639831991038</v>
+        <v>0.13003785458417191</v>
       </c>
       <c r="G33">
-        <v>0.26254722537048653</v>
+        <v>4.1283960355264167E-2</v>
       </c>
       <c r="H33">
-        <v>-0.20348995211931609</v>
+        <v>0.1149473467019453</v>
       </c>
       <c r="I33">
-        <v>0.20022754763822301</v>
+        <v>3.8412936482865763E-2</v>
       </c>
       <c r="J33">
-        <v>5.6904351302619269E-2</v>
+        <v>-0.13542875894805079</v>
       </c>
       <c r="K33">
-        <v>0.71730262155949476</v>
+        <v>0.1483142038642061</v>
       </c>
       <c r="M33">
-        <v>-6.5696902288785552E-2</v>
+        <v>-7.4282041062698728E-2</v>
       </c>
       <c r="N33">
-        <v>0.51091537168086043</v>
+        <v>0.26281942242589118</v>
       </c>
       <c r="P33">
-        <v>-1.1689848745484529E-2</v>
+        <v>-0.21015292815100969</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.35">
@@ -2120,43 +2120,43 @@
         <v>48</v>
       </c>
       <c r="B34">
-        <v>8.9144503845181022E-3</v>
+        <v>4.7202979224090216E-3</v>
       </c>
       <c r="C34">
-        <v>6.7002254263224579</v>
+        <v>6.722149118376386</v>
       </c>
       <c r="D34">
-        <v>1.3503181332879929E-3</v>
+        <v>-7.0717168633384017E-4</v>
       </c>
       <c r="E34">
-        <v>8.736793814146164E-2</v>
+        <v>0.2065131153732736</v>
       </c>
       <c r="F34">
-        <v>0.2551537631213433</v>
+        <v>0.20625383026138511</v>
       </c>
       <c r="G34">
-        <v>5.5381102737677178E-2</v>
+        <v>0.15407380478609131</v>
       </c>
       <c r="H34">
-        <v>0.1108084119107378</v>
+        <v>0.13441874177494831</v>
       </c>
       <c r="I34">
-        <v>5.9328319183150013E-2</v>
+        <v>-1.3247626070826369E-2</v>
       </c>
       <c r="J34">
-        <v>-0.1441040572747895</v>
+        <v>-0.1198550727722596</v>
       </c>
       <c r="K34">
-        <v>0.12720549233877071</v>
+        <v>0.14841156512516809</v>
       </c>
       <c r="M34">
-        <v>-9.0651590395771836E-2</v>
+        <v>0.15877489616398349</v>
       </c>
       <c r="N34">
-        <v>0.23666358611622049</v>
+        <v>0.28353747858645018</v>
       </c>
       <c r="P34">
-        <v>-0.23610596580384929</v>
+        <v>3.9626995078057753E-2</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.35">
@@ -2164,43 +2164,43 @@
         <v>49</v>
       </c>
       <c r="B35">
-        <v>6.988104522695715E-3</v>
+        <v>4.623185016752851E-3</v>
       </c>
       <c r="C35">
-        <v>6.7022990247842706</v>
+        <v>6.7117469428208558</v>
       </c>
       <c r="D35">
-        <v>1.4897540809624709E-3</v>
+        <v>2.659181700093465E-3</v>
       </c>
       <c r="E35">
-        <v>0.33947794309915391</v>
+        <v>0.21473664409737861</v>
       </c>
       <c r="F35">
-        <v>0.28726519375715698</v>
+        <v>0.29716522878056822</v>
       </c>
       <c r="G35">
-        <v>0.4312245641851723</v>
+        <v>0.2139219371493484</v>
       </c>
       <c r="H35">
-        <v>-0.34274154485568908</v>
+        <v>-0.15382631551021919</v>
       </c>
       <c r="I35">
-        <v>0.14765032394378111</v>
+        <v>0.1041858932068824</v>
       </c>
       <c r="J35">
-        <v>0.2229826798773496</v>
+        <v>7.8150050948251934E-2</v>
       </c>
       <c r="K35">
-        <v>0.74193592941132203</v>
+        <v>0.46757521741453639</v>
       </c>
       <c r="M35">
-        <v>-8.1728053441857129E-3</v>
+        <v>-6.9519223382277659E-2</v>
       </c>
       <c r="N35">
-        <v>0.39770463047467042</v>
+        <v>0.31108972020422382</v>
       </c>
       <c r="P35">
-        <v>0.21332012045220139</v>
+        <v>5.9716458658808109E-3</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.35">
@@ -2208,43 +2208,43 @@
         <v>50</v>
       </c>
       <c r="B36">
-        <v>5.21060329124301E-3</v>
+        <v>4.623185016752962E-3</v>
       </c>
       <c r="C36">
-        <v>6.7047421085014109</v>
+        <v>6.7117469428208558</v>
       </c>
       <c r="D36">
-        <v>8.8073955070773415E-4</v>
+        <v>2.6591817000935231E-3</v>
       </c>
       <c r="E36">
-        <v>-0.14063305306037949</v>
+        <v>0.21473664543696949</v>
       </c>
       <c r="F36">
-        <v>6.4171528692944152E-2</v>
+        <v>0.29716522430233211</v>
       </c>
       <c r="G36">
-        <v>-1.6593559981558949E-2</v>
+        <v>0.21392193714934651</v>
       </c>
       <c r="H36">
-        <v>-0.19041817046111609</v>
+        <v>-0.15382631551021811</v>
       </c>
       <c r="I36">
-        <v>0.19244174414905049</v>
+        <v>0.1041858932068821</v>
       </c>
       <c r="J36">
-        <v>4.4721603282953271E-2</v>
+        <v>7.8150050948251282E-2</v>
       </c>
       <c r="K36">
-        <v>4.9051092379798683E-2</v>
+        <v>0.46757521937239838</v>
       </c>
       <c r="M36">
-        <v>-0.18097526022072619</v>
+        <v>-6.9519223382275869E-2</v>
       </c>
       <c r="N36">
-        <v>-0.1422478176320251</v>
+        <v>0.31108972216208669</v>
       </c>
       <c r="P36">
-        <v>-0.13713439648848069</v>
+        <v>5.9716458658818899E-3</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.35">
@@ -2252,43 +2252,43 @@
         <v>51</v>
       </c>
       <c r="B37">
-        <v>8.6390730581290542E-3</v>
+        <v>5.3687127303104756E-3</v>
       </c>
       <c r="C37">
-        <v>6.7048187722659032</v>
+        <v>6.7361682046019222</v>
       </c>
       <c r="D37">
-        <v>1.922454097100414E-3</v>
+        <v>-7.3660426686311935E-4</v>
       </c>
       <c r="E37">
-        <v>0.39530891135391172</v>
+        <v>0.22649924803786861</v>
       </c>
       <c r="F37">
-        <v>0.30853983435639643</v>
+        <v>0.14667196185254011</v>
       </c>
       <c r="G37">
-        <v>0.43712726275925567</v>
+        <v>0.1498836526952386</v>
       </c>
       <c r="H37">
-        <v>-0.34671759246734429</v>
+        <v>0.1208500955576315</v>
       </c>
       <c r="I37">
-        <v>0.18934328945858761</v>
+        <v>-6.1793730019203297E-2</v>
       </c>
       <c r="J37">
-        <v>0.1979613427021524</v>
+        <v>-7.2196451476706891E-2</v>
       </c>
       <c r="K37">
-        <v>0.83324546106990072</v>
+        <v>0.19085927817971821</v>
       </c>
       <c r="M37">
-        <v>5.7942659205133529E-3</v>
+        <v>0.1117411803206334</v>
       </c>
       <c r="N37">
-        <v>0.48460541450545608</v>
+        <v>0.31244597800421281</v>
       </c>
       <c r="P37">
-        <v>0.2018331545255653</v>
+        <v>4.0281333110789658E-2</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.35">
@@ -2296,43 +2296,43 @@
         <v>52</v>
       </c>
       <c r="B38">
-        <v>8.6390730581283881E-3</v>
+        <v>8.1791028768163354E-3</v>
       </c>
       <c r="C38">
-        <v>6.7048187722659049</v>
+        <v>6.687883040940144</v>
       </c>
       <c r="D38">
-        <v>1.9224540971007789E-3</v>
+        <v>2.599051945202195E-3</v>
       </c>
       <c r="E38">
-        <v>0.39530890965844651</v>
+        <v>0.2396083159103661</v>
       </c>
       <c r="F38">
-        <v>0.30853982090628629</v>
+        <v>0.26841872636070502</v>
       </c>
       <c r="G38">
-        <v>0.43712726275923469</v>
+        <v>0.26061659322211361</v>
       </c>
       <c r="H38">
-        <v>-0.34671759246732492</v>
+        <v>-0.2469095930933953</v>
       </c>
       <c r="I38">
-        <v>0.18934328945857709</v>
+        <v>0.17513078140517979</v>
       </c>
       <c r="J38">
-        <v>0.1979613427021425</v>
+        <v>0.11531461992920559</v>
       </c>
       <c r="K38">
-        <v>0.83324545859189858</v>
+        <v>0.62213220176776118</v>
       </c>
       <c r="M38">
-        <v>5.7942659205141578E-3</v>
+        <v>-0.1613069405143655</v>
       </c>
       <c r="N38">
-        <v>0.48460541202747293</v>
+        <v>0.3726235567291637</v>
       </c>
       <c r="P38">
-        <v>0.20183315452555581</v>
+        <v>-4.8591372530362109E-2</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.35">
@@ -2340,43 +2340,43 @@
         <v>53</v>
       </c>
       <c r="B39">
-        <v>9.2013024365622531E-3</v>
+        <v>8.1791028768161134E-3</v>
       </c>
       <c r="C39">
-        <v>6.7062637578593618</v>
+        <v>6.6878830409401457</v>
       </c>
       <c r="D39">
-        <v>2.0683250430696041E-3</v>
+        <v>2.5990519452023741E-3</v>
       </c>
       <c r="E39">
-        <v>0.44738834289881912</v>
+        <v>0.239608316725239</v>
       </c>
       <c r="F39">
-        <v>0.35434896091717749</v>
+        <v>0.26841871974869802</v>
       </c>
       <c r="G39">
-        <v>0.4811677468162075</v>
+        <v>0.2606165932221074</v>
       </c>
       <c r="H39">
-        <v>-0.34214222681342238</v>
+        <v>-0.24690959309338839</v>
       </c>
       <c r="I39">
-        <v>0.1700356196489726</v>
+        <v>0.17513078140517621</v>
       </c>
       <c r="J39">
-        <v>0.20787880746383611</v>
+        <v>0.115314619929202</v>
       </c>
       <c r="K39">
-        <v>0.89506158509435618</v>
+        <v>0.62213220295872196</v>
       </c>
       <c r="M39">
-        <v>1.7408698076788211E-2</v>
+        <v>-0.1613069405143607</v>
       </c>
       <c r="N39">
-        <v>0.55085103323786411</v>
+        <v>0.37262355792013119</v>
       </c>
       <c r="P39">
-        <v>0.22321918049755471</v>
+        <v>-4.8591372530360992E-2</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.35">
@@ -2384,43 +2384,43 @@
         <v>54</v>
       </c>
       <c r="B40">
-        <v>4.623185016752851E-3</v>
+        <v>1.6841875950614819E-2</v>
       </c>
       <c r="C40">
-        <v>6.7117469428208558</v>
+        <v>6.647034335948061</v>
       </c>
       <c r="D40">
-        <v>2.659181700093465E-3</v>
+        <v>4.9547617885506033E-4</v>
       </c>
       <c r="E40">
-        <v>0.21473664409737861</v>
+        <v>0.27231119476950172</v>
       </c>
       <c r="F40">
-        <v>0.29716522878056822</v>
+        <v>0.27834760128476471</v>
       </c>
       <c r="G40">
-        <v>0.2139219371493484</v>
+        <v>0.43635204197052369</v>
       </c>
       <c r="H40">
-        <v>-0.15382631551021919</v>
+        <v>-0.29435753311973051</v>
       </c>
       <c r="I40">
-        <v>0.1041858932068824</v>
+        <v>0.34674147327494043</v>
       </c>
       <c r="J40">
-        <v>7.8150050948251934E-2</v>
+        <v>3.1445252956515742E-2</v>
       </c>
       <c r="K40">
-        <v>0.46757521741453639</v>
+        <v>0.78328165444951858</v>
       </c>
       <c r="M40">
-        <v>-6.9519223382277659E-2</v>
+        <v>-0.22689305783459349</v>
       </c>
       <c r="N40">
-        <v>0.31108972020422382</v>
+        <v>0.48842864515093309</v>
       </c>
       <c r="P40">
-        <v>5.9716458658808109E-3</v>
+        <v>-0.19594328105693279</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.35">
@@ -2428,43 +2428,43 @@
         <v>55</v>
       </c>
       <c r="B41">
-        <v>4.623185016752962E-3</v>
+        <v>1.6841875950614819E-2</v>
       </c>
       <c r="C41">
-        <v>6.7117469428208558</v>
+        <v>6.6470343359480593</v>
       </c>
       <c r="D41">
-        <v>2.6591817000935231E-3</v>
+        <v>4.9547617885537757E-4</v>
       </c>
       <c r="E41">
-        <v>0.21473664543696949</v>
+        <v>0.27231120915842338</v>
       </c>
       <c r="F41">
-        <v>0.29716522430233211</v>
+        <v>0.27834761715936213</v>
       </c>
       <c r="G41">
-        <v>0.21392193714934651</v>
+        <v>0.43635204197052468</v>
       </c>
       <c r="H41">
-        <v>-0.15382631551021811</v>
+        <v>-0.29435753311972862</v>
       </c>
       <c r="I41">
-        <v>0.1041858932068821</v>
+        <v>0.34674147327493998</v>
       </c>
       <c r="J41">
-        <v>7.8150050948251282E-2</v>
+        <v>3.1445252956515062E-2</v>
       </c>
       <c r="K41">
-        <v>0.46757521937239838</v>
+        <v>0.78328167547947869</v>
       </c>
       <c r="M41">
-        <v>-6.9519223382275869E-2</v>
+        <v>-0.2268930578345911</v>
       </c>
       <c r="N41">
-        <v>0.31108972216208669</v>
+        <v>0.48842866618089481</v>
       </c>
       <c r="P41">
-        <v>5.9716458658818899E-3</v>
+        <v>-0.1959432810569314</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.35">
@@ -2472,43 +2472,43 @@
         <v>56</v>
       </c>
       <c r="B42">
-        <v>6.9498385110549066E-3</v>
+        <v>1.518597330409166E-2</v>
       </c>
       <c r="C42">
-        <v>6.7119945672192216</v>
+        <v>6.6721729741480704</v>
       </c>
       <c r="D42">
-        <v>3.6242074828501681E-4</v>
+        <v>2.169128874490194E-5</v>
       </c>
       <c r="E42">
-        <v>7.1836591528756225E-2</v>
+        <v>0.33568269861550859</v>
       </c>
       <c r="F42">
-        <v>0.15809143482673441</v>
+        <v>0.37670133873295192</v>
       </c>
       <c r="G42">
-        <v>8.9402863038558419E-2</v>
+        <v>0.4843645151482921</v>
       </c>
       <c r="H42">
-        <v>8.4034896663524497E-2</v>
+        <v>-0.2800177272521111</v>
       </c>
       <c r="I42">
-        <v>9.0875023718644282E-2</v>
+        <v>0.27815339702467973</v>
       </c>
       <c r="J42">
-        <v>-0.14400465417781519</v>
+        <v>6.5845430546921047E-2</v>
       </c>
       <c r="K42">
-        <v>0.11696860445205549</v>
+        <v>0.78226138694655711</v>
       </c>
       <c r="M42">
-        <v>-6.2872726028644271E-2</v>
+        <v>-9.0976125188084664E-2</v>
       </c>
       <c r="N42">
-        <v>0.200641080367295</v>
+        <v>0.5022219684057011</v>
       </c>
       <c r="P42">
-        <v>-0.20723980095474451</v>
+        <v>-2.5152385929908521E-2</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.35">
@@ -2516,43 +2516,43 @@
         <v>57</v>
       </c>
       <c r="B43">
-        <v>8.2351484978400169E-3</v>
+        <v>1.518597330409166E-2</v>
       </c>
       <c r="C43">
-        <v>6.7124117026026919</v>
+        <v>6.6721729741480651</v>
       </c>
       <c r="D43">
-        <v>4.4212814026017578E-4</v>
+        <v>2.1691288745002381E-5</v>
       </c>
       <c r="E43">
-        <v>0.1134597327700278</v>
+        <v>0.3356827110366768</v>
       </c>
       <c r="F43">
-        <v>0.13003785458417191</v>
+        <v>0.37670133361993741</v>
       </c>
       <c r="G43">
-        <v>4.1283960355264167E-2</v>
+        <v>0.48436451514829948</v>
       </c>
       <c r="H43">
-        <v>0.1149473467019453</v>
+        <v>-0.28001772725211133</v>
       </c>
       <c r="I43">
-        <v>3.8412936482865763E-2</v>
+        <v>0.27815339702467601</v>
       </c>
       <c r="J43">
-        <v>-0.13542875894805079</v>
+        <v>6.5845430546924211E-2</v>
       </c>
       <c r="K43">
-        <v>0.1483142038642061</v>
+        <v>0.78226140510056852</v>
       </c>
       <c r="M43">
-        <v>-7.4282041062698728E-2</v>
+        <v>-9.0976125188079224E-2</v>
       </c>
       <c r="N43">
-        <v>0.26281942242589118</v>
+        <v>0.50222198655971229</v>
       </c>
       <c r="P43">
-        <v>-0.21015292815100969</v>
+        <v>-2.515238592990001E-2</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.35">
@@ -2560,43 +2560,43 @@
         <v>58</v>
       </c>
       <c r="B44">
-        <v>7.8600471290266594E-3</v>
+        <v>6.988104522695715E-3</v>
       </c>
       <c r="C44">
-        <v>6.7176215908246304</v>
+        <v>6.7022990247842706</v>
       </c>
       <c r="D44">
-        <v>3.2979896722434583E-4</v>
+        <v>1.4897540809624709E-3</v>
       </c>
       <c r="E44">
-        <v>4.7240207627798153E-2</v>
+        <v>0.33947794309915391</v>
       </c>
       <c r="F44">
-        <v>0.18325455252378939</v>
+        <v>0.28726519375715698</v>
       </c>
       <c r="G44">
-        <v>4.4911965277604091E-2</v>
+        <v>0.4312245641851723</v>
       </c>
       <c r="H44">
-        <v>0.1146174827706927</v>
+        <v>-0.34274154485568908</v>
       </c>
       <c r="I44">
-        <v>6.5085293309654998E-2</v>
+        <v>0.14765032394378111</v>
       </c>
       <c r="J44">
-        <v>-0.15457298240185849</v>
+        <v>0.2229826798773496</v>
       </c>
       <c r="K44">
-        <v>7.614352593314698E-2</v>
+        <v>0.74193592941132203</v>
       </c>
       <c r="M44">
-        <v>-0.1081041822388895</v>
+        <v>-8.1728053441857129E-3</v>
       </c>
       <c r="N44">
-        <v>0.19043120973661529</v>
+        <v>0.39770463047467042</v>
       </c>
       <c r="P44">
-        <v>-0.26300696360797238</v>
+        <v>0.21332012045220139</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.35">
@@ -2604,43 +2604,43 @@
         <v>59</v>
       </c>
       <c r="B45">
-        <v>4.1919218433267291E-3</v>
+        <v>8.3187518686720363E-3</v>
       </c>
       <c r="C45">
-        <v>6.7181740979156457</v>
+        <v>6.6958282205618964</v>
       </c>
       <c r="D45">
-        <v>3.2580321672194751E-4</v>
+        <v>2.897297759318795E-3</v>
       </c>
       <c r="E45">
-        <v>-0.1043250434338569</v>
+        <v>0.34588214147331842</v>
       </c>
       <c r="F45">
-        <v>6.0622488702777831E-2</v>
+        <v>0.45791638486590291</v>
       </c>
       <c r="G45">
-        <v>4.5466833840186486E-3</v>
+        <v>0.26254722537049452</v>
       </c>
       <c r="H45">
-        <v>-0.16283610455858749</v>
+        <v>-0.2034899521193195</v>
       </c>
       <c r="I45">
-        <v>0.1659028521659463</v>
+        <v>0.2002275476382282</v>
       </c>
       <c r="J45">
-        <v>3.6144255988505028E-2</v>
+        <v>5.6904351302620122E-2</v>
       </c>
       <c r="K45">
-        <v>5.1352457618861633E-2</v>
+        <v>0.71730261760678948</v>
       </c>
       <c r="M45">
-        <v>-0.1239272816400263</v>
+        <v>-6.5696902288787273E-2</v>
       </c>
       <c r="N45">
-        <v>-0.1118094501564478</v>
+        <v>0.51091536772815116</v>
       </c>
       <c r="P45">
-        <v>-8.8108828868243227E-2</v>
+        <v>-1.168984874548595E-2</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.35">
@@ -2648,43 +2648,43 @@
         <v>60</v>
       </c>
       <c r="B46">
-        <v>4.7202979224090216E-3</v>
+        <v>8.3187518686717032E-3</v>
       </c>
       <c r="C46">
-        <v>6.722149118376386</v>
+        <v>6.6958282205618991</v>
       </c>
       <c r="D46">
-        <v>-7.0717168633384017E-4</v>
+        <v>2.8972977593182511E-3</v>
       </c>
       <c r="E46">
-        <v>0.2065131153732736</v>
+        <v>0.34588214417780411</v>
       </c>
       <c r="F46">
-        <v>0.20625383026138511</v>
+        <v>0.45791639831991038</v>
       </c>
       <c r="G46">
-        <v>0.15407380478609131</v>
+        <v>0.26254722537048653</v>
       </c>
       <c r="H46">
-        <v>0.13441874177494831</v>
+        <v>-0.20348995211931609</v>
       </c>
       <c r="I46">
-        <v>-1.3247626070826369E-2</v>
+        <v>0.20022754763822301</v>
       </c>
       <c r="J46">
-        <v>-0.1198550727722596</v>
+        <v>5.6904351302619269E-2</v>
       </c>
       <c r="K46">
-        <v>0.14841156512516809</v>
+        <v>0.71730262155949476</v>
       </c>
       <c r="M46">
-        <v>0.15877489616398349</v>
+        <v>-6.5696902288785552E-2</v>
       </c>
       <c r="N46">
-        <v>0.28353747858645018</v>
+        <v>0.51091537168086043</v>
       </c>
       <c r="P46">
-        <v>3.9626995078057753E-2</v>
+        <v>-1.1689848745484529E-2</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.35">
@@ -2692,43 +2692,43 @@
         <v>61</v>
       </c>
       <c r="B47">
-        <v>1.7006932970219379E-3</v>
+        <v>2.231972256188142E-2</v>
       </c>
       <c r="C47">
-        <v>6.7245087165660191</v>
+        <v>6.6274646998329168</v>
       </c>
       <c r="D47">
-        <v>5.6328367628527424E-4</v>
+        <v>8.9206749296651588E-4</v>
       </c>
       <c r="E47">
-        <v>3.4133514139321572E-2</v>
+        <v>0.35332109619976398</v>
       </c>
       <c r="F47">
-        <v>4.7588709037258918E-2</v>
+        <v>0.36646901666525139</v>
       </c>
       <c r="G47">
-        <v>3.4551586618865482E-2</v>
+        <v>0.4032217876181064</v>
       </c>
       <c r="H47">
-        <v>7.1628563494071457E-2</v>
+        <v>-0.28979752034551182</v>
       </c>
       <c r="I47">
-        <v>-2.9403741154985421E-2</v>
+        <v>0.47500399135781263</v>
       </c>
       <c r="J47">
-        <v>-4.5311995617329397E-2</v>
+        <v>-6.3947006817116125E-2</v>
       </c>
       <c r="K47">
-        <v>-6.4995462285208222E-3</v>
+        <v>0.93191019043357715</v>
       </c>
       <c r="M47">
-        <v>1.407231795805804E-2</v>
+        <v>-0.20562209334671189</v>
       </c>
       <c r="N47">
-        <v>6.4565733589265359E-2</v>
+        <v>0.64122060259509872</v>
       </c>
       <c r="P47">
-        <v>-3.1802961335556629E-2</v>
+        <v>-0.27046116765679462</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.35">
@@ -2736,43 +2736,43 @@
         <v>62</v>
       </c>
       <c r="B48">
-        <v>2.521626495781137E-3</v>
+        <v>2.2319722561880639E-2</v>
       </c>
       <c r="C48">
-        <v>6.7248125371839196</v>
+        <v>6.6274646998329203</v>
       </c>
       <c r="D48">
-        <v>6.5205471656105897E-4</v>
+        <v>8.9206749296700757E-4</v>
       </c>
       <c r="E48">
-        <v>-0.14138702594675179</v>
+        <v>0.35332110435580599</v>
       </c>
       <c r="F48">
-        <v>-7.1261453541082195E-2</v>
+        <v>0.36646899477211908</v>
       </c>
       <c r="G48">
-        <v>-4.9068505177759507E-2</v>
+        <v>0.40322178761809568</v>
       </c>
       <c r="H48">
-        <v>-9.5102123862735491E-2</v>
+        <v>-0.28979752034550432</v>
       </c>
       <c r="I48">
-        <v>6.7138659226007119E-2</v>
+        <v>0.4750039913578013</v>
       </c>
       <c r="J48">
-        <v>4.3712266082601307E-2</v>
+        <v>-6.3947006817113822E-2</v>
       </c>
       <c r="K48">
-        <v>-8.5548255827480921E-2</v>
+        <v>0.93191020235393607</v>
       </c>
       <c r="M48">
-        <v>-9.796385231606991E-2</v>
+        <v>-0.20562209334670739</v>
       </c>
       <c r="N48">
-        <v>-0.18130243440677751</v>
+        <v>0.64122061451546486</v>
       </c>
       <c r="P48">
-        <v>-5.4903640950029663E-2</v>
+        <v>-0.27046116765678818</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.35">
@@ -2780,43 +2780,43 @@
         <v>63</v>
       </c>
       <c r="B49">
-        <v>2.3523606189109758E-3</v>
+        <v>1.287776028462506E-2</v>
       </c>
       <c r="C49">
-        <v>6.7267610633906108</v>
+        <v>6.6625780076995964</v>
       </c>
       <c r="D49">
-        <v>1.5870815965615731E-3</v>
+        <v>2.8056752808018788E-3</v>
       </c>
       <c r="E49">
-        <v>-9.1589325664268972E-2</v>
+        <v>0.35894313198804451</v>
       </c>
       <c r="F49">
-        <v>-6.63000806626734E-2</v>
+        <v>0.40933187096739759</v>
       </c>
       <c r="G49">
-        <v>-8.3393093513489799E-4</v>
+        <v>0.29185830404433122</v>
       </c>
       <c r="H49">
-        <v>-0.1306555384106842</v>
+        <v>-0.29407408916414002</v>
       </c>
       <c r="I49">
-        <v>5.812759735568488E-2</v>
+        <v>0.28937349078706831</v>
       </c>
       <c r="J49">
-        <v>8.6397211871682339E-2</v>
+        <v>7.8541743120908614E-2</v>
       </c>
       <c r="K49">
-        <v>1.3447909828508081E-2</v>
+        <v>0.85300853976817737</v>
       </c>
       <c r="M49">
-        <v>-0.1174544561580408</v>
+        <v>-0.1440284964116427</v>
       </c>
       <c r="N49">
-        <v>-0.1187947101787377</v>
+        <v>0.55612877532323546</v>
       </c>
       <c r="P49">
-        <v>-3.264432588292001E-2</v>
+        <v>-6.8292428571535987E-2</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.35">
@@ -2824,43 +2824,43 @@
         <v>64</v>
       </c>
       <c r="B50">
-        <v>3.7857182126571631E-3</v>
+        <v>1.287776028462506E-2</v>
       </c>
       <c r="C50">
-        <v>6.7312253249515077</v>
+        <v>6.6625780076995964</v>
       </c>
       <c r="D50">
-        <v>1.301560190681112E-3</v>
+        <v>2.8056752808020371E-3</v>
       </c>
       <c r="E50">
-        <v>3.155033427639397E-2</v>
+        <v>0.35894313433416419</v>
       </c>
       <c r="F50">
-        <v>0.1098027098466481</v>
+        <v>0.40933184157476959</v>
       </c>
       <c r="G50">
-        <v>3.7921000381349192E-2</v>
+        <v>0.29185830404432789</v>
       </c>
       <c r="H50">
-        <v>8.4167071510727817E-2</v>
+        <v>-0.29407408916413552</v>
       </c>
       <c r="I50">
-        <v>7.8390163594517379E-2</v>
+        <v>0.28937349078706809</v>
       </c>
       <c r="J50">
-        <v>-0.13265833830767421</v>
+        <v>7.8541743120904839E-2</v>
       </c>
       <c r="K50">
-        <v>5.1569942088209773E-2</v>
+        <v>0.85300854319711605</v>
       </c>
       <c r="M50">
-        <v>-5.7407525344286142E-2</v>
+        <v>-0.14402849641163609</v>
       </c>
       <c r="N50">
-        <v>0.13443545340825649</v>
+        <v>0.55612877875217859</v>
       </c>
       <c r="P50">
-        <v>-0.19136742384264141</v>
+        <v>-6.8292428571533351E-2</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.35">
@@ -2868,43 +2868,43 @@
         <v>65</v>
       </c>
       <c r="B51">
-        <v>1.1704770561279389E-3</v>
+        <v>8.6390730581283881E-3</v>
       </c>
       <c r="C51">
-        <v>6.7323200889168202</v>
+        <v>6.7048187722659049</v>
       </c>
       <c r="D51">
-        <v>3.9495965623971498E-4</v>
+        <v>1.9224540971007789E-3</v>
       </c>
       <c r="E51">
-        <v>-5.4234946433183023E-2</v>
+        <v>0.39530890965844651</v>
       </c>
       <c r="F51">
-        <v>1.828963473835828E-2</v>
+        <v>0.30853982090628629</v>
       </c>
       <c r="G51">
-        <v>-9.753738145574178E-4</v>
+        <v>0.43712726275923469</v>
       </c>
       <c r="H51">
-        <v>-6.6604926951453661E-2</v>
+        <v>-0.34671759246732492</v>
       </c>
       <c r="I51">
-        <v>3.2829609447443911E-2</v>
+        <v>0.18934328945857709</v>
       </c>
       <c r="J51">
-        <v>4.0642186985726837E-2</v>
+        <v>0.1979613427021425</v>
       </c>
       <c r="K51">
-        <v>9.142355278665637E-3</v>
+        <v>0.83324545859189858</v>
       </c>
       <c r="M51">
-        <v>-8.663323982167323E-2</v>
+        <v>5.7942659205141578E-3</v>
       </c>
       <c r="N51">
-        <v>-5.7857531329027739E-2</v>
+        <v>0.48460541202747293</v>
       </c>
       <c r="P51">
-        <v>-4.6386012492186122E-2</v>
+        <v>0.20183315452555581</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.35">
@@ -2912,43 +2912,43 @@
         <v>66</v>
       </c>
       <c r="B52">
-        <v>2.2285784401424591E-3</v>
+        <v>8.6390730581290542E-3</v>
       </c>
       <c r="C52">
-        <v>6.7333146277147913</v>
+        <v>6.7048187722659032</v>
       </c>
       <c r="D52">
-        <v>1.751033270425293E-3</v>
+        <v>1.922454097100414E-3</v>
       </c>
       <c r="E52">
-        <v>-9.6568755849862284E-2</v>
+        <v>0.39530891135391172</v>
       </c>
       <c r="F52">
-        <v>-2.5929706572775629E-2</v>
+        <v>0.30853983435639643</v>
       </c>
       <c r="G52">
-        <v>-5.7147295246879108E-2</v>
+        <v>0.43712726275925567</v>
       </c>
       <c r="H52">
-        <v>-0.1032232210851015</v>
+        <v>-0.34671759246734429</v>
       </c>
       <c r="I52">
-        <v>3.9225703064623418E-2</v>
+        <v>0.18934328945858761</v>
       </c>
       <c r="J52">
-        <v>7.4393618818921509E-2</v>
+        <v>0.1979613427021524</v>
       </c>
       <c r="K52">
-        <v>-2.660450353383563E-2</v>
+        <v>0.83324546106990072</v>
       </c>
       <c r="M52">
-        <v>-9.3356336979441526E-2</v>
+        <v>5.7942659205133529E-3</v>
       </c>
       <c r="N52">
-        <v>-0.13157875788936241</v>
+        <v>0.48460541450545608</v>
       </c>
       <c r="P52">
-        <v>-2.071375143094531E-2</v>
+        <v>0.2018331545255653</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.35">
@@ -2956,43 +2956,43 @@
         <v>67</v>
       </c>
       <c r="B53">
-        <v>7.2850321012607466E-4</v>
+        <v>9.3025630395797698E-3</v>
       </c>
       <c r="C53">
-        <v>6.7335718468479149</v>
+        <v>6.6944483895874143</v>
       </c>
       <c r="D53">
-        <v>2.2068340204501342E-3</v>
+        <v>2.724764004061245E-3</v>
       </c>
       <c r="E53">
-        <v>-3.7231607452541053E-2</v>
+        <v>0.41119229911245492</v>
       </c>
       <c r="F53">
-        <v>-1.927803345892096E-2</v>
+        <v>0.52858643360354485</v>
       </c>
       <c r="G53">
-        <v>-1.596529527289467E-2</v>
+        <v>0.29509646943640178</v>
       </c>
       <c r="H53">
-        <v>-3.295734527810653E-2</v>
+        <v>-0.18746847236148559</v>
       </c>
       <c r="I53">
-        <v>2.4172064283990598E-2</v>
+        <v>0.19669156114538969</v>
       </c>
       <c r="J53">
-        <v>1.978037439606211E-2</v>
+        <v>4.3789022769081982E-2</v>
       </c>
       <c r="K53">
-        <v>-6.9748123990079069E-3</v>
+        <v>0.79336674220820946</v>
       </c>
       <c r="M53">
-        <v>-4.4172481963935417E-2</v>
+        <v>-4.5831240901349622E-2</v>
       </c>
       <c r="N53">
-        <v>-4.2138991697564569E-2</v>
+        <v>0.60317350584266261</v>
       </c>
       <c r="P53">
-        <v>-2.659894158832345E-2</v>
+        <v>-4.7669821363288886E-3</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.35">
@@ -3000,43 +3000,43 @@
         <v>68</v>
       </c>
       <c r="B54">
-        <v>2.7235831683364302E-3</v>
+        <v>1.2698592834409659E-2</v>
       </c>
       <c r="C54">
-        <v>6.7340021384587896</v>
+        <v>6.6658481035881731</v>
       </c>
       <c r="D54">
-        <v>1.635426554420838E-3</v>
+        <v>2.7366767070513181E-3</v>
       </c>
       <c r="E54">
-        <v>-0.1241797126113469</v>
+        <v>0.42346468508634511</v>
       </c>
       <c r="F54">
-        <v>-6.4016751510473452E-2</v>
+        <v>0.47610511390206722</v>
       </c>
       <c r="G54">
-        <v>-6.9979984145934315E-2</v>
+        <v>0.31982909387767738</v>
       </c>
       <c r="H54">
-        <v>-0.1009193196516438</v>
+        <v>-0.25093456851584661</v>
       </c>
       <c r="I54">
-        <v>3.3228716549301207E-2</v>
+        <v>0.27144539734323958</v>
       </c>
       <c r="J54">
-        <v>7.6207644229722857E-2</v>
+        <v>5.0320601997220063E-2</v>
       </c>
       <c r="K54">
-        <v>-6.3432957800618625E-2</v>
+        <v>0.89928811511010631</v>
       </c>
       <c r="M54">
-        <v>-0.1081679489300868</v>
+        <v>-0.1054489739390274</v>
       </c>
       <c r="N54">
-        <v>-0.16598770400668331</v>
+        <v>0.64561686988720834</v>
       </c>
       <c r="P54">
-        <v>-3.3595731254784808E-2</v>
+        <v>-5.7865048648858691E-2</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.35">
@@ -3044,43 +3044,43 @@
         <v>69</v>
       </c>
       <c r="B55">
-        <v>7.6922327114137268E-4</v>
+        <v>1.2512596924845409E-2</v>
       </c>
       <c r="C55">
-        <v>6.7345341467487261</v>
+        <v>6.6671413076878423</v>
       </c>
       <c r="D55">
-        <v>9.8778007199699621E-4</v>
+        <v>1.0568235056105379E-3</v>
       </c>
       <c r="E55">
-        <v>1.294642455442703E-2</v>
+        <v>0.43893095023071571</v>
       </c>
       <c r="F55">
-        <v>2.8116991663433649E-2</v>
+        <v>0.3267644008494951</v>
       </c>
       <c r="G55">
-        <v>5.1484368409659611E-3</v>
+        <v>0.54979719376174774</v>
       </c>
       <c r="H55">
-        <v>3.3383237757373542E-2</v>
+        <v>-0.49499091982361221</v>
       </c>
       <c r="I55">
-        <v>-1.088595018804444E-2</v>
+        <v>0.25667017883737048</v>
       </c>
       <c r="J55">
-        <v>-2.1208129490453378E-2</v>
+        <v>0.28791949549225998</v>
       </c>
       <c r="K55">
-        <v>-4.4593718076983389E-3</v>
+        <v>1.012581618577445</v>
       </c>
       <c r="M55">
-        <v>2.664734583166527E-3</v>
+        <v>-1.6071392627198811E-2</v>
       </c>
       <c r="N55">
-        <v>2.7936085877678211E-2</v>
+        <v>0.5165338752482227</v>
       </c>
       <c r="P55">
-        <v>-1.953117497928385E-2</v>
+        <v>0.27079127935945058</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.35">
@@ -3088,43 +3088,43 @@
         <v>70</v>
       </c>
       <c r="B56">
-        <v>1.3356869282555861E-3</v>
+        <v>2.3976983448863901E-2</v>
       </c>
       <c r="C56">
-        <v>6.7346195736160936</v>
+        <v>6.6212056402408344</v>
       </c>
       <c r="D56">
-        <v>9.6167489229700314E-4</v>
+        <v>2.5765965801625258E-4</v>
       </c>
       <c r="E56">
-        <v>2.1739161014230238E-2</v>
+        <v>0.44628833922541378</v>
       </c>
       <c r="F56">
-        <v>4.9306851200621178E-2</v>
+        <v>0.49814519285618808</v>
       </c>
       <c r="G56">
-        <v>1.149579992583806E-2</v>
+        <v>0.4506914330005457</v>
       </c>
       <c r="H56">
-        <v>4.5652352938194703E-2</v>
+        <v>-0.25732767211627511</v>
       </c>
       <c r="I56">
-        <v>3.9161691106872808E-2</v>
+        <v>0.50611051201768187</v>
       </c>
       <c r="J56">
-        <v>-6.8860844900590967E-2</v>
+        <v>-0.11877595932231649</v>
       </c>
       <c r="K56">
-        <v>2.8685175322933139E-2</v>
+        <v>1.0721749214278049</v>
       </c>
       <c r="M56">
-        <v>-2.0317819294516429E-2</v>
+        <v>-0.23266408438847011</v>
       </c>
       <c r="N56">
-        <v>7.3375853368830832E-2</v>
+        <v>0.8145895896535138</v>
       </c>
       <c r="P56">
-        <v>-9.0140339087404403E-2</v>
+        <v>-0.35169770336880279</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.35">
@@ -3132,43 +3132,43 @@
         <v>71</v>
       </c>
       <c r="B57">
-        <v>8.4080392063035081E-4</v>
+        <v>9.2013024365622531E-3</v>
       </c>
       <c r="C57">
-        <v>6.7350342416485196</v>
+        <v>6.7062637578593618</v>
       </c>
       <c r="D57">
-        <v>9.2258124704526815E-4</v>
+        <v>2.0683250430696041E-3</v>
       </c>
       <c r="E57">
-        <v>-3.6978076328288562E-2</v>
+        <v>0.44738834289881912</v>
       </c>
       <c r="F57">
-        <v>-3.4429011450205153E-2</v>
+        <v>0.35434896091717749</v>
       </c>
       <c r="G57">
-        <v>-1.294757884926199E-2</v>
+        <v>0.4811677468162075</v>
       </c>
       <c r="H57">
-        <v>-2.4918925533561009E-2</v>
+        <v>-0.34214222681342238</v>
       </c>
       <c r="I57">
-        <v>5.475289858168985E-3</v>
+        <v>0.1700356196489726</v>
       </c>
       <c r="J57">
-        <v>2.2160993397646489E-2</v>
+        <v>0.20787880746383611</v>
       </c>
       <c r="K57">
-        <v>-2.4254657549158291E-2</v>
+        <v>0.89506158509435618</v>
       </c>
       <c r="M57">
-        <v>-2.979396447569178E-2</v>
+        <v>1.7408698076788211E-2</v>
       </c>
       <c r="N57">
-        <v>-5.0096164329764568E-2</v>
+        <v>0.55085103323786411</v>
       </c>
       <c r="P57">
-        <v>-8.5555523250905579E-3</v>
+        <v>0.22321918049755471</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.35">
@@ -3176,43 +3176,43 @@
         <v>72</v>
       </c>
       <c r="B58">
-        <v>9.1208420677280078E-4</v>
+        <v>1.9526470718407522E-2</v>
       </c>
       <c r="C58">
-        <v>6.7353409357102496</v>
+        <v>6.6573116237872814</v>
       </c>
       <c r="D58">
-        <v>2.0057405331825608E-3</v>
+        <v>5.8996572050647373E-4</v>
       </c>
       <c r="E58">
-        <v>7.3739892276940286E-3</v>
+        <v>0.44972708723546462</v>
       </c>
       <c r="F58">
-        <v>3.0836826440240061E-2</v>
+        <v>0.42442231505386718</v>
       </c>
       <c r="G58">
-        <v>5.4514205019029569E-3</v>
+        <v>0.43693700112404421</v>
       </c>
       <c r="H58">
-        <v>3.7665091502014407E-2</v>
+        <v>-0.28253107567487151</v>
       </c>
       <c r="I58">
-        <v>1.9655326817849251E-2</v>
+        <v>0.39447910275617071</v>
       </c>
       <c r="J58">
-        <v>-4.4490926129815388E-2</v>
+        <v>-1.380687916028669E-2</v>
       </c>
       <c r="K58">
-        <v>3.531281158820232E-3</v>
+        <v>0.97460794451652721</v>
       </c>
       <c r="M58">
-        <v>-1.5065403725883801E-2</v>
+        <v>-5.9689002302725523E-2</v>
       </c>
       <c r="N58">
-        <v>3.9190632127652093E-2</v>
+        <v>0.69148690312114924</v>
       </c>
       <c r="P58">
-        <v>-6.1562070388881757E-2</v>
+        <v>-7.4085847183518683E-2</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.35">
@@ -3220,43 +3220,43 @@
         <v>73</v>
       </c>
       <c r="B59">
-        <v>1.5256752243326681E-3</v>
+        <v>1.9526470718407411E-2</v>
       </c>
       <c r="C59">
-        <v>6.7357881238418891</v>
+        <v>6.6573116237872796</v>
       </c>
       <c r="D59">
-        <v>8.9401442589383858E-4</v>
+        <v>5.8996572050703155E-4</v>
       </c>
       <c r="E59">
-        <v>2.23727452311401E-2</v>
+        <v>0.44972710519492409</v>
       </c>
       <c r="F59">
-        <v>8.780700598791856E-2</v>
+        <v>0.42442229101532353</v>
       </c>
       <c r="G59">
-        <v>4.8680958712229418E-2</v>
+        <v>0.43693700112403738</v>
       </c>
       <c r="H59">
-        <v>4.7442440683012177E-2</v>
+        <v>-0.28253107567486779</v>
       </c>
       <c r="I59">
-        <v>2.8469944265185849E-2</v>
+        <v>0.39447910275616632</v>
       </c>
       <c r="J59">
-        <v>-6.305962516284877E-2</v>
+        <v>-1.3806879160285579E-2</v>
       </c>
       <c r="K59">
-        <v>3.6795650864973148E-2</v>
+        <v>0.97460797076496264</v>
       </c>
       <c r="M59">
-        <v>-4.5778167610512038E-2</v>
+        <v>-5.9689002302721582E-2</v>
       </c>
       <c r="N59">
-        <v>8.3344077122091492E-2</v>
+        <v>0.69148692936958778</v>
       </c>
       <c r="P59">
-        <v>-0.1097318071992546</v>
+        <v>-7.4085847183514186E-2</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.35">
@@ -3264,43 +3264,43 @@
         <v>74</v>
       </c>
       <c r="B60">
-        <v>8.4295556255686854E-4</v>
+        <v>1.9486505235401071E-2</v>
       </c>
       <c r="C60">
-        <v>6.7358280737224243</v>
+        <v>6.6247150527144294</v>
       </c>
       <c r="D60">
-        <v>-8.8067477441206422E-4</v>
+        <v>2.6377859045457379E-3</v>
       </c>
       <c r="E60">
-        <v>4.473188348161096E-2</v>
+        <v>0.4941982460720804</v>
       </c>
       <c r="F60">
-        <v>3.1835325526347387E-2</v>
+        <v>0.46484131666233008</v>
       </c>
       <c r="G60">
-        <v>3.2646872477920343E-2</v>
+        <v>0.41707327598212007</v>
       </c>
       <c r="H60">
-        <v>2.6887295166476689E-2</v>
+        <v>-0.52197721249932405</v>
       </c>
       <c r="I60">
-        <v>-2.7529993427415599E-2</v>
+        <v>0.33356693645697982</v>
       </c>
       <c r="J60">
-        <v>-8.0751912017087736E-3</v>
+        <v>0.26249813657333282</v>
       </c>
       <c r="K60">
-        <v>3.2142509763116903E-2</v>
+        <v>1.1622971856331381</v>
       </c>
       <c r="M60">
-        <v>1.903944142705247E-2</v>
+        <v>-7.6543977103947863E-2</v>
       </c>
       <c r="N60">
-        <v>5.9910479704005662E-2</v>
+        <v>0.63768218722926862</v>
       </c>
       <c r="P60">
-        <v>1.1844924999755769E-2</v>
+        <v>0.18331637356483921</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.35">
@@ -3308,43 +3308,43 @@
         <v>75</v>
       </c>
       <c r="B61">
-        <v>6.4779812201476439E-4</v>
+        <v>1.9486505235400738E-2</v>
       </c>
       <c r="C61">
-        <v>6.7360786690035113</v>
+        <v>6.6247150527144303</v>
       </c>
       <c r="D61">
-        <v>1.094697856981642E-4</v>
+        <v>2.6377859045456911E-3</v>
       </c>
       <c r="E61">
-        <v>-9.941760436236069E-3</v>
+        <v>0.49419825905772158</v>
       </c>
       <c r="F61">
-        <v>-2.207578016035289E-2</v>
+        <v>0.46484131498496961</v>
       </c>
       <c r="G61">
-        <v>-7.6025603067814834E-3</v>
+        <v>0.41707327598211519</v>
       </c>
       <c r="H61">
-        <v>-1.072877209856766E-2</v>
+        <v>-0.52197721249931905</v>
       </c>
       <c r="I61">
-        <v>-1.050715513392987E-2</v>
+        <v>0.33356693645697733</v>
       </c>
       <c r="J61">
-        <v>1.8014028995191059E-2</v>
+        <v>0.26249813657332949</v>
       </c>
       <c r="K61">
-        <v>-1.357761532529672E-2</v>
+        <v>1.1622972046121489</v>
       </c>
       <c r="M61">
-        <v>3.5142233631450769E-3</v>
+        <v>-7.6543977103947169E-2</v>
       </c>
       <c r="N61">
-        <v>-2.441585720956254E-2</v>
+        <v>0.63768220620828397</v>
       </c>
       <c r="P61">
-        <v>2.1418782572637969E-2</v>
+        <v>0.1833163735648366</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.35">
@@ -3352,43 +3352,43 @@
         <v>76</v>
       </c>
       <c r="B62">
-        <v>5.3687127303104756E-3</v>
+        <v>1.503507309420893E-2</v>
       </c>
       <c r="C62">
-        <v>6.7361682046019222</v>
+        <v>6.6615505369280257</v>
       </c>
       <c r="D62">
-        <v>-7.3660426686311935E-4</v>
+        <v>1.278014067604014E-3</v>
       </c>
       <c r="E62">
-        <v>0.22649924803786861</v>
+        <v>0.50214857999908835</v>
       </c>
       <c r="F62">
-        <v>0.14667196185254011</v>
+        <v>0.34338158319934958</v>
       </c>
       <c r="G62">
-        <v>0.1498836526952386</v>
+        <v>0.55201859672641818</v>
       </c>
       <c r="H62">
-        <v>0.1208500955576315</v>
+        <v>-0.5211901818602892</v>
       </c>
       <c r="I62">
-        <v>-6.1793730019203297E-2</v>
+        <v>0.32932079187485758</v>
       </c>
       <c r="J62">
-        <v>-7.2196451476706891E-2</v>
+        <v>0.26117545868527697</v>
       </c>
       <c r="K62">
-        <v>0.19085927817971821</v>
+        <v>1.137518158671079</v>
       </c>
       <c r="M62">
-        <v>0.1117411803206334</v>
+        <v>-2.368527230795614E-3</v>
       </c>
       <c r="N62">
-        <v>0.31244597800421281</v>
+        <v>0.6150499627431858</v>
       </c>
       <c r="P62">
-        <v>4.0281333110789658E-2</v>
+        <v>0.25752891738687739</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.35">
@@ -3396,43 +3396,43 @@
         <v>77</v>
       </c>
       <c r="B63">
-        <v>6.4429599383131197E-4</v>
+        <v>1.503507309420826E-2</v>
       </c>
       <c r="C63">
-        <v>6.7362030782690612</v>
+        <v>6.6615505369280292</v>
       </c>
       <c r="D63">
-        <v>1.13190092911466E-4</v>
+        <v>1.278014067604014E-3</v>
       </c>
       <c r="E63">
-        <v>-1.5786006496712642E-2</v>
+        <v>0.50214859477799534</v>
       </c>
       <c r="F63">
-        <v>-2.1039033242562012E-3</v>
+        <v>0.34338151841553571</v>
       </c>
       <c r="G63">
-        <v>4.1274121385956137E-3</v>
+        <v>0.5520185967264114</v>
       </c>
       <c r="H63">
-        <v>-1.6765515662997318E-2</v>
+        <v>-0.5211901818602811</v>
       </c>
       <c r="I63">
-        <v>1.208863752614381E-2</v>
+        <v>0.3293207918748503</v>
       </c>
       <c r="J63">
-        <v>7.519756324050937E-3</v>
+        <v>0.26117545868527448</v>
       </c>
       <c r="K63">
-        <v>-9.5399212717140365E-3</v>
+        <v>1.137518180271013</v>
       </c>
       <c r="M63">
-        <v>-1.552282442133755E-4</v>
+        <v>-2.3685272307971679E-3</v>
       </c>
       <c r="N63">
-        <v>-2.6418627027622821E-2</v>
+        <v>0.61504998434312841</v>
       </c>
       <c r="P63">
-        <v>7.2513379869260956E-3</v>
+        <v>0.25752891738687328</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.35">
@@ -3440,43 +3440,43 @@
         <v>78</v>
       </c>
       <c r="B64">
-        <v>7.6089781838428738E-4</v>
+        <v>1.684099253216631E-2</v>
       </c>
       <c r="C64">
-        <v>6.7364873988904987</v>
+        <v>6.6407298610501737</v>
       </c>
       <c r="D64">
-        <v>2.7497737388057172E-4</v>
+        <v>2.1048986764428388E-3</v>
       </c>
       <c r="E64">
-        <v>-1.8121896219486119E-2</v>
+        <v>0.51200921114399245</v>
       </c>
       <c r="F64">
-        <v>-1.7565793555444829E-2</v>
+        <v>0.75599075367762092</v>
       </c>
       <c r="G64">
-        <v>-5.7659406494910363E-3</v>
+        <v>0.38935829914167031</v>
       </c>
       <c r="H64">
-        <v>-2.2026501523520689E-2</v>
+        <v>-0.43310006526971268</v>
       </c>
       <c r="I64">
-        <v>-4.797683939956326E-3</v>
+        <v>0.27664700369873652</v>
       </c>
       <c r="J64">
-        <v>2.5069442271830489E-2</v>
+        <v>0.2176678565101571</v>
       </c>
       <c r="K64">
-        <v>-5.1937610127778394E-3</v>
+        <v>1.1451153552400219</v>
       </c>
       <c r="M64">
-        <v>-2.2607449787601229E-2</v>
+        <v>-0.1323396370144499</v>
       </c>
       <c r="N64">
-        <v>-2.74952399101791E-2</v>
+        <v>0.70991039129386702</v>
       </c>
       <c r="P64">
-        <v>2.187015110348692E-3</v>
+        <v>8.322332081926441E-2</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.35">
@@ -3484,43 +3484,43 @@
         <v>79</v>
       </c>
       <c r="B65">
-        <v>9.7916572357714671E-4</v>
+        <v>1.684099253216564E-2</v>
       </c>
       <c r="C65">
-        <v>6.736706549435981</v>
+        <v>6.6407298610501773</v>
       </c>
       <c r="D65">
-        <v>-7.9700746353765838E-6</v>
+        <v>2.104898676442802E-3</v>
       </c>
       <c r="E65">
-        <v>1.117143141345652E-2</v>
+        <v>0.51200921721623893</v>
       </c>
       <c r="F65">
-        <v>3.0445546421176851E-2</v>
+        <v>0.75599076759662731</v>
       </c>
       <c r="G65">
-        <v>1.8173023213917869E-2</v>
+        <v>0.38935829914166159</v>
       </c>
       <c r="H65">
-        <v>3.2175496696082759E-2</v>
+        <v>-0.43310006526970302</v>
       </c>
       <c r="I65">
-        <v>1.982066722263125E-2</v>
+        <v>0.27664700369872602</v>
       </c>
       <c r="J65">
-        <v>-4.477317606275797E-2</v>
+        <v>0.21766785651015549</v>
       </c>
       <c r="K65">
-        <v>8.7146574335279781E-3</v>
+        <v>1.1451153641148339</v>
       </c>
       <c r="M65">
-        <v>-8.4711969784650315E-3</v>
+        <v>-0.13233963701444651</v>
       </c>
       <c r="N65">
-        <v>4.0898124204246107E-2</v>
+        <v>0.709910400168688</v>
       </c>
       <c r="P65">
-        <v>-5.3236402966587618E-2</v>
+        <v>8.3223320819266228E-2</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.35">
@@ -3528,43 +3528,43 @@
         <v>80</v>
       </c>
       <c r="B66">
-        <v>6.3851119679469992E-4</v>
+        <v>1.3456775018704681E-2</v>
       </c>
       <c r="C66">
-        <v>6.7367678942454514</v>
+        <v>6.6765946673300203</v>
       </c>
       <c r="D66">
-        <v>6.6915428903556202E-4</v>
+        <v>1.3874852219356421E-3</v>
       </c>
       <c r="E66">
-        <v>-7.7289926787673172E-3</v>
+        <v>0.5244886751622948</v>
       </c>
       <c r="F66">
-        <v>-7.253974197065638E-3</v>
+        <v>0.35718864645590881</v>
       </c>
       <c r="G66">
-        <v>-2.5363472515300212E-3</v>
+        <v>0.55212133406545905</v>
       </c>
       <c r="H66">
-        <v>-3.670803386880347E-3</v>
+        <v>-0.461403024810493</v>
       </c>
       <c r="I66">
-        <v>-1.7430575498433591E-3</v>
+        <v>0.28162405218336611</v>
       </c>
       <c r="J66">
-        <v>6.5178059849918587E-3</v>
+        <v>0.2390228553716639</v>
       </c>
       <c r="K66">
-        <v>-5.8134520253158468E-3</v>
+        <v>1.105343633672794</v>
       </c>
       <c r="M66">
-        <v>-8.3247408260506625E-3</v>
+        <v>3.10469999767479E-2</v>
       </c>
       <c r="N66">
-        <v>-1.0153409701231761E-2</v>
+        <v>0.64255312364036488</v>
       </c>
       <c r="P66">
-        <v>-2.4760891300943662E-3</v>
+        <v>0.26868237012647622</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.35">
@@ -3572,43 +3572,43 @@
         <v>81</v>
       </c>
       <c r="B67">
-        <v>6.489532127581521E-4</v>
+        <v>2.3860229699222631E-2</v>
       </c>
       <c r="C67">
-        <v>6.7373028008321398</v>
+        <v>6.6351993369944466</v>
       </c>
       <c r="D67">
-        <v>-2.8166036853716312E-4</v>
+        <v>3.8683295904746941E-4</v>
       </c>
       <c r="E67">
-        <v>9.1117326449615486E-3</v>
+        <v>0.52628989057096809</v>
       </c>
       <c r="F67">
-        <v>9.9437814253535879E-3</v>
+        <v>0.57088994253501635</v>
       </c>
       <c r="G67">
-        <v>7.2975234599490946E-3</v>
+        <v>0.48815793811832581</v>
       </c>
       <c r="H67">
-        <v>8.7145713328515857E-3</v>
+        <v>-0.26314424752647581</v>
       </c>
       <c r="I67">
-        <v>-8.390792423547306E-3</v>
+        <v>0.47156759980963242</v>
       </c>
       <c r="J67">
-        <v>-2.989384474390633E-3</v>
+        <v>-8.8104399437443928E-2</v>
       </c>
       <c r="K67">
-        <v>5.0871593388912336E-3</v>
+        <v>1.1382303979648769</v>
       </c>
       <c r="M67">
-        <v>1.047530227625079E-3</v>
+        <v>-0.14010596866737529</v>
       </c>
       <c r="N67">
-        <v>1.408339104027998E-2</v>
+        <v>0.87469931747935348</v>
       </c>
       <c r="P67">
-        <v>-1.660193878228391E-3</v>
+        <v>-0.22859720106386669</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.35">
@@ -3616,43 +3616,43 @@
         <v>82</v>
       </c>
       <c r="B68">
-        <v>6.2754637293260807E-4</v>
+        <v>1.9369101515694039E-2</v>
       </c>
       <c r="C68">
-        <v>6.7373810641180949</v>
+        <v>6.6329963628723556</v>
       </c>
       <c r="D68">
-        <v>1.1134487300709719E-3</v>
+        <v>2.1148495903142031E-3</v>
       </c>
       <c r="E68">
-        <v>-3.443431523757179E-3</v>
+        <v>0.53064878623811018</v>
       </c>
       <c r="F68">
-        <v>4.9117729114694702E-3</v>
+        <v>0.523110368581575</v>
       </c>
       <c r="G68">
-        <v>-2.0639415392106441E-3</v>
+        <v>0.33873066708447153</v>
       </c>
       <c r="H68">
-        <v>5.3442629477652766E-3</v>
+        <v>-0.49183862967026842</v>
       </c>
       <c r="I68">
-        <v>-2.0571962826461451E-3</v>
+        <v>0.4016307152478138</v>
       </c>
       <c r="J68">
-        <v>-6.2178083630657049E-4</v>
+        <v>0.1836327458572658</v>
       </c>
       <c r="K68">
-        <v>-4.9404132638898174E-3</v>
+        <v>1.2106775950712301</v>
       </c>
       <c r="M68">
-        <v>-7.6315056587632456E-3</v>
+        <v>-5.4032324102671087E-2</v>
       </c>
       <c r="N68">
-        <v>-7.0959904619551204E-4</v>
+        <v>0.7167241158106471</v>
       </c>
       <c r="P68">
-        <v>-9.366735225140789E-3</v>
+        <v>0.1274855721642805</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.35">
@@ -3660,43 +3660,43 @@
         <v>83</v>
       </c>
       <c r="B69">
-        <v>6.2061803652191383E-4</v>
+        <v>1.9369101515693269E-2</v>
       </c>
       <c r="C69">
-        <v>6.7381008407144289</v>
+        <v>6.6329963628723583</v>
       </c>
       <c r="D69">
-        <v>1.5073135359225491E-3</v>
+        <v>2.1148495903152869E-3</v>
       </c>
       <c r="E69">
-        <v>3.2068524499738842E-3</v>
+        <v>0.53064879038396517</v>
       </c>
       <c r="F69">
-        <v>5.7755564197586621E-3</v>
+        <v>0.52311038375108909</v>
       </c>
       <c r="G69">
-        <v>-7.103707090102762E-3</v>
+        <v>0.33873066708446142</v>
       </c>
       <c r="H69">
-        <v>1.40124064497728E-2</v>
+        <v>-0.49183862967025888</v>
       </c>
       <c r="I69">
-        <v>-6.3279918704432911E-3</v>
+        <v>0.40163071524780741</v>
       </c>
       <c r="J69">
-        <v>-4.7249361777996438E-3</v>
+        <v>0.1836327458572643</v>
       </c>
       <c r="K69">
-        <v>-4.9054342925765482E-3</v>
+        <v>1.210677601130548</v>
       </c>
       <c r="M69">
-        <v>-7.8644540786865051E-5</v>
+        <v>-5.4032324102668998E-2</v>
       </c>
       <c r="N69">
-        <v>7.5996586212737031E-3</v>
+        <v>0.71672412186997381</v>
       </c>
       <c r="P69">
-        <v>-6.310894254509058E-3</v>
+        <v>0.12748557216428</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.35">
@@ -3704,43 +3704,43 @@
         <v>84</v>
       </c>
       <c r="B70">
-        <v>8.5078267766214299E-4</v>
+        <v>1.6585138969809839E-2</v>
       </c>
       <c r="C70">
-        <v>6.7383240888879969</v>
+        <v>6.6533090595849798</v>
       </c>
       <c r="D70">
-        <v>5.7202582755235519E-5</v>
+        <v>1.979405583144779E-3</v>
       </c>
       <c r="E70">
-        <v>1.170703229398228E-2</v>
+        <v>0.57906562617936885</v>
       </c>
       <c r="F70">
-        <v>3.5540971338324213E-2</v>
+        <v>0.60414890961362988</v>
       </c>
       <c r="G70">
-        <v>1.381331552839412E-2</v>
+        <v>0.35177394840806903</v>
       </c>
       <c r="H70">
-        <v>2.6274468550972631E-2</v>
+        <v>-0.42112127229571278</v>
       </c>
       <c r="I70">
-        <v>1.3751129666488251E-2</v>
+        <v>0.3743081880910033</v>
       </c>
       <c r="J70">
-        <v>-3.4643302848036947E-2</v>
+        <v>0.13582683565903589</v>
       </c>
       <c r="K70">
-        <v>9.6888181890055353E-3</v>
+        <v>1.205778137712163</v>
       </c>
       <c r="M70">
-        <v>-6.0237413122469358E-3</v>
+        <v>4.0592231866162509E-3</v>
       </c>
       <c r="N70">
-        <v>3.5906084157222927E-2</v>
+        <v>0.78267745983330494</v>
       </c>
       <c r="P70">
-        <v>-4.0724246743039122E-2</v>
+        <v>0.13790665326250731</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.35">
@@ -3748,43 +3748,43 @@
         <v>85</v>
       </c>
       <c r="B71">
-        <v>6.3693135447340232E-4</v>
+        <v>1.888157590719686E-2</v>
       </c>
       <c r="C71">
-        <v>6.7391905448072453</v>
+        <v>6.6413998601599467</v>
       </c>
       <c r="D71">
-        <v>1.5019263583420229E-3</v>
+        <v>2.1628365134756921E-3</v>
       </c>
       <c r="E71">
-        <v>1.6519193495257632E-2</v>
+        <v>0.59671719792171807</v>
       </c>
       <c r="F71">
-        <v>-4.34780821598369E-3</v>
+        <v>0.83256040713988044</v>
       </c>
       <c r="G71">
-        <v>7.7684428924981097E-3</v>
+        <v>0.36467038870753721</v>
       </c>
       <c r="H71">
-        <v>2.652368997932945E-2</v>
+        <v>-0.42956572012474908</v>
       </c>
       <c r="I71">
-        <v>-1.9893570598897181E-2</v>
+        <v>0.35804063290234123</v>
       </c>
       <c r="J71">
-        <v>-6.8616314041805874E-3</v>
+        <v>0.1560090424267736</v>
       </c>
       <c r="K71">
-        <v>-7.4221799325355393E-3</v>
+        <v>1.279408816447746</v>
       </c>
       <c r="M71">
-        <v>2.2541905839192699E-2</v>
+        <v>-0.100882308748487</v>
       </c>
       <c r="N71">
-        <v>1.7599583688451881E-2</v>
+        <v>0.84768025980952133</v>
       </c>
       <c r="P71">
-        <v>1.4178348076670091E-2</v>
+        <v>5.2963897164810848E-2</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.35">
@@ -3792,43 +3792,43 @@
         <v>86</v>
       </c>
       <c r="B72">
-        <v>1.0298311290803941E-3</v>
+        <v>1.888157590719752E-2</v>
       </c>
       <c r="C72">
-        <v>6.7393520571030558</v>
+        <v>6.6413998601599458</v>
       </c>
       <c r="D72">
-        <v>1.0607068858707431E-3</v>
+        <v>2.1628365134760828E-3</v>
       </c>
       <c r="E72">
-        <v>5.2917642820002733E-2</v>
+        <v>0.59671720220854219</v>
       </c>
       <c r="F72">
-        <v>3.135851048292021E-2</v>
+        <v>0.83256041270932712</v>
       </c>
       <c r="G72">
-        <v>2.318313396095556E-2</v>
+        <v>0.36467038870753871</v>
       </c>
       <c r="H72">
-        <v>3.3540440909643893E-2</v>
+        <v>-0.42956572012475258</v>
       </c>
       <c r="I72">
-        <v>-2.1828186399585201E-2</v>
+        <v>0.35804063290234472</v>
       </c>
       <c r="J72">
-        <v>-1.3303446872122329E-2</v>
+        <v>0.15600904242677549</v>
       </c>
       <c r="K72">
-        <v>3.8745518415762577E-2</v>
+        <v>1.2794088227131111</v>
       </c>
       <c r="M72">
-        <v>2.7615309069007589E-2</v>
+        <v>-0.1008823087484941</v>
       </c>
       <c r="N72">
-        <v>7.122525243953573E-2</v>
+        <v>0.84768026607488223</v>
       </c>
       <c r="P72">
-        <v>1.325115531101452E-2</v>
+        <v>5.2963897164805332E-2</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.35">
@@ -3836,43 +3836,43 @@
         <v>87</v>
       </c>
       <c r="B73">
-        <v>9.8594016401754025E-4</v>
+        <v>1.9091712696646449E-2</v>
       </c>
       <c r="C73">
-        <v>6.7399577645913711</v>
+        <v>6.6418453420480841</v>
       </c>
       <c r="D73">
-        <v>1.9669866209259549E-4</v>
+        <v>1.768474518963516E-3</v>
       </c>
       <c r="E73">
-        <v>-2.8465720744557971E-2</v>
+        <v>0.68079325561503745</v>
       </c>
       <c r="F73">
-        <v>-2.0445410252157039E-2</v>
+        <v>0.8815323887005666</v>
       </c>
       <c r="G73">
-        <v>-1.4326987899680029E-2</v>
+        <v>0.38004041292418728</v>
       </c>
       <c r="H73">
-        <v>-2.800066685734505E-2</v>
+        <v>-0.39186859673263269</v>
       </c>
       <c r="I73">
-        <v>-1.4460503741873189E-2</v>
+        <v>0.32941214520633938</v>
       </c>
       <c r="J73">
-        <v>3.7467031972661657E-2</v>
+        <v>0.13976750481545741</v>
       </c>
       <c r="K73">
-        <v>-1.400670574057911E-2</v>
+        <v>1.3530503303076029</v>
       </c>
       <c r="M73">
-        <v>-3.5969627938299692E-2</v>
+        <v>-6.0882448803556997E-2</v>
       </c>
       <c r="N73">
-        <v>-4.2204071260016747E-2</v>
+        <v>0.95941325905600694</v>
       </c>
       <c r="P73">
-        <v>1.300705372269384E-3</v>
+        <v>7.7116581492936917E-2</v>
       </c>
     </row>
   </sheetData>
